--- a/tests/results/vm-results.xlsx
+++ b/tests/results/vm-results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="6400" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="NUMBERS" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="scan (no save)" sheetId="9" r:id="rId6"/>
     <sheet name="threads (8)" sheetId="8" r:id="rId7"/>
     <sheet name="threads (4)" sheetId="6" r:id="rId8"/>
+    <sheet name="threads (4 - pimped)" sheetId="10" r:id="rId9"/>
+    <sheet name="materialize" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="times_insert" localSheetId="1">insert!$A$4:$H$12</definedName>
@@ -106,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="51">
   <si>
     <t>in ns</t>
   </si>
@@ -239,15 +241,44 @@
   <si>
     <t>ColStore with 8 Threads:</t>
   </si>
+  <si>
+    <t>No thread:</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>NUM_COLS</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Selektivity</t>
+  </si>
+  <si>
+    <t>materialized</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,22 +312,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1077,11 +1115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2086372496"/>
-        <c:axId val="-2083774912"/>
+        <c:axId val="-2071926928"/>
+        <c:axId val="-2052517232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2086372496"/>
+        <c:axId val="-2071926928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083774912"/>
+        <c:crossAx val="-2052517232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1132,7 +1170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083774912"/>
+        <c:axId val="-2052517232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086372496"/>
+        <c:crossAx val="-2071926928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2409,11 +2447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2088013520"/>
-        <c:axId val="-2088017056"/>
+        <c:axId val="-2046254928"/>
+        <c:axId val="-2046251840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088013520"/>
+        <c:axId val="-2046254928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088017056"/>
+        <c:crossAx val="-2046251840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2464,7 +2502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088017056"/>
+        <c:axId val="-2046251840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088013520"/>
+        <c:crossAx val="-2046254928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3074,11 +3112,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2088215392"/>
-        <c:axId val="-2088212224"/>
+        <c:axId val="-2052322912"/>
+        <c:axId val="-2052458752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088215392"/>
+        <c:axId val="-2052322912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,7 +3159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088212224"/>
+        <c:crossAx val="-2052458752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3129,7 +3167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088212224"/>
+        <c:axId val="-2052458752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3216,7 +3254,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088215392"/>
+        <c:crossAx val="-2052322912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3564,11 +3602,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2088344736"/>
-        <c:axId val="-2088341696"/>
+        <c:axId val="-2118800240"/>
+        <c:axId val="-2112277296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088344736"/>
+        <c:axId val="-2118800240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,7 +3649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088341696"/>
+        <c:crossAx val="-2112277296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3619,7 +3657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088341696"/>
+        <c:axId val="-2112277296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3701,7 +3739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088344736"/>
+        <c:crossAx val="-2118800240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3829,7 +3867,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4113,11 +4150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2088391888"/>
-        <c:axId val="-2088407952"/>
+        <c:axId val="-2043208944"/>
+        <c:axId val="-2043203360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2088391888"/>
+        <c:axId val="-2043208944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,7 +4186,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4216,7 +4252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088407952"/>
+        <c:crossAx val="-2043203360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4224,7 +4260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088407952"/>
+        <c:axId val="-2043203360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150.0"/>
@@ -4271,7 +4307,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4332,7 +4367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088391888"/>
+        <c:crossAx val="-2043208944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4346,7 +4381,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4943,11 +4977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2067210064"/>
-        <c:axId val="-2085174736"/>
+        <c:axId val="-2046470496"/>
+        <c:axId val="-2046467280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2067210064"/>
+        <c:axId val="-2046470496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4990,7 +5024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085174736"/>
+        <c:crossAx val="-2046467280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4998,7 +5032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085174736"/>
+        <c:axId val="-2046467280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5105,7 +5139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067210064"/>
+        <c:crossAx val="-2046470496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5728,11 +5762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2103961616"/>
-        <c:axId val="2098761072"/>
+        <c:axId val="-2046398480"/>
+        <c:axId val="-2046395328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103961616"/>
+        <c:axId val="-2046398480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5775,7 +5809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098761072"/>
+        <c:crossAx val="-2046395328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5783,7 +5817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098761072"/>
+        <c:axId val="-2046395328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5890,7 +5924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103961616"/>
+        <c:crossAx val="-2046398480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6508,11 +6542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2085266176"/>
-        <c:axId val="-2082810160"/>
+        <c:axId val="-2044740992"/>
+        <c:axId val="-2043307776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2085266176"/>
+        <c:axId val="-2044740992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6555,7 +6589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082810160"/>
+        <c:crossAx val="-2043307776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6563,7 +6597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082810160"/>
+        <c:axId val="-2043307776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6670,7 +6704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085266176"/>
+        <c:crossAx val="-2044740992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7293,11 +7327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2083594672"/>
-        <c:axId val="-2086627632"/>
+        <c:axId val="-2043349920"/>
+        <c:axId val="-2043346768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2083594672"/>
+        <c:axId val="-2043349920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7340,7 +7374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2086627632"/>
+        <c:crossAx val="-2043346768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7348,7 +7382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086627632"/>
+        <c:axId val="-2043346768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7455,7 +7489,1572 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083594672"/>
+        <c:crossAx val="-2043349920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scan - 4 Threads - Duration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'threads (4 - pimped)'!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>row multi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$I$15:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.94271725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9428024375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9708225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0485490625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.564729125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0256824375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.01106775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.791842875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F3C-4B19-A06E-70BEB7027A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'threads (4 - pimped)'!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>col multi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$J$15:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.7693005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.763442875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7549645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7668041875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7534241875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.771027125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7629244375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7569334375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F3C-4B19-A06E-70BEB7027A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'threads (4 - pimped)'!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>row single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$L$15:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.186072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.255051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.648028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.998985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.645843</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.688401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.41979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.884424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0F3C-4B19-A06E-70BEB7027A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'threads (4 - pimped)'!$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>col single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$M$15:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.417083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.936402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.427879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.414947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.387692</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.399341</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.399429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.426434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0F3C-4B19-A06E-70BEB7027A9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2109430608"/>
+        <c:axId val="-2109427360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2109430608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2109427360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2109427360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2109430608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - 4 Threads - Bandwidth</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'threads (4 - pimped)'!$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>row multi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$I$26:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.046491422136383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.046125798889865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.929345751283062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.638072267719947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.437928204106893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.260772518075932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.951042840307297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.006027251491796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F59E-4F79-B0A5-E16E7121E2BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'threads (4 - pimped)'!$J$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>col multi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$J$26:$J$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.958656943060612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.99670294994239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.052816742542198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.974799730896096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.063146802179085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.947552611232711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.000098408336802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.039673340662798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F59E-4F79-B0A5-E16E7121E2BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'threads (4 - pimped)'!$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>row single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$L$26:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.197304161872362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.171931642737702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.045687496265105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.953916372685819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.675664779489086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.326366050037554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.284259087930959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.320982932418517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F59E-4F79-B0A5-E16E7121E2BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'threads (4 - pimped)'!$M$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>col single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$H$4:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'threads (4 - pimped)'!$M$26:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.116360728031774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.969082239472747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.112844784085144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.117058995534923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.12604607078359</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.122187290308622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.122158240582463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.113314094368956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F59E-4F79-B0A5-E16E7121E2BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2115042944"/>
+        <c:axId val="-2115064256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2115042944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115064256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2115064256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MB/ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2115042944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7861,11 +9460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2105202176"/>
-        <c:axId val="2113274464"/>
+        <c:axId val="-2100886432"/>
+        <c:axId val="-2044550496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2105202176"/>
+        <c:axId val="-2100886432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7908,7 +9507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113274464"/>
+        <c:crossAx val="-2044550496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7916,7 +9515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113274464"/>
+        <c:axId val="-2044550496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8023,7 +9622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105202176"/>
+        <c:crossAx val="-2100886432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8419,11 +10018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071350304"/>
-        <c:axId val="-2071347232"/>
+        <c:axId val="-2103075360"/>
+        <c:axId val="-2100457968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071350304"/>
+        <c:axId val="-2103075360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8466,7 +10065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071347232"/>
+        <c:crossAx val="-2100457968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8474,7 +10073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071347232"/>
+        <c:axId val="-2100457968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8581,7 +10180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071350304"/>
+        <c:crossAx val="-2103075360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9493,11 +11092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071444320"/>
-        <c:axId val="-2105197440"/>
+        <c:axId val="-2058085616"/>
+        <c:axId val="-2118860160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071444320"/>
+        <c:axId val="-2058085616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9540,7 +11139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105197440"/>
+        <c:crossAx val="-2118860160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9548,7 +11147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105197440"/>
+        <c:axId val="-2118860160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9655,7 +11254,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071444320"/>
+        <c:crossAx val="-2058085616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10567,11 +12166,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071468592"/>
-        <c:axId val="-2071465504"/>
+        <c:axId val="-2101607072"/>
+        <c:axId val="-2104921632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071468592"/>
+        <c:axId val="-2101607072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10614,7 +12213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071465504"/>
+        <c:crossAx val="-2104921632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10622,7 +12221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071465504"/>
+        <c:axId val="-2104921632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10729,7 +12328,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071468592"/>
+        <c:crossAx val="-2101607072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11899,11 +13498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071704480"/>
-        <c:axId val="-2071701472"/>
+        <c:axId val="-2043251888"/>
+        <c:axId val="-2043248880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071704480"/>
+        <c:axId val="-2043251888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11946,7 +13545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071701472"/>
+        <c:crossAx val="-2043248880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11954,7 +13553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071701472"/>
+        <c:axId val="-2043248880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12061,7 +13660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071704480"/>
+        <c:crossAx val="-2043251888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12564,11 +14163,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071618560"/>
-        <c:axId val="-2071615424"/>
+        <c:axId val="-2071972400"/>
+        <c:axId val="-2041456704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071618560"/>
+        <c:axId val="-2071972400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12611,7 +14210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071615424"/>
+        <c:crossAx val="-2041456704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12619,7 +14218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071615424"/>
+        <c:axId val="-2041456704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12706,7 +14305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071618560"/>
+        <c:crossAx val="-2071972400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13054,11 +14653,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144576240"/>
-        <c:axId val="-2144577888"/>
+        <c:axId val="-2046385696"/>
+        <c:axId val="-2046382688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144576240"/>
+        <c:axId val="-2046385696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13101,7 +14700,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144577888"/>
+        <c:crossAx val="-2046382688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13109,7 +14708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144577888"/>
+        <c:axId val="-2046382688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13191,7 +14790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144576240"/>
+        <c:crossAx val="-2046385696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13603,11 +15202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2067262768"/>
-        <c:axId val="-2122589520"/>
+        <c:axId val="-2046336112"/>
+        <c:axId val="-2046330480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2067262768"/>
+        <c:axId val="-2046336112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13706,7 +15305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122589520"/>
+        <c:crossAx val="-2046330480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13714,7 +15313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122589520"/>
+        <c:axId val="-2046330480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150.0"/>
@@ -13822,7 +15421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067262768"/>
+        <c:crossAx val="-2046336112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14144,6 +15743,86 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18024,6 +19703,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -22068,7 +24753,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22109,7 +24794,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22145,7 +24830,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22188,7 +24873,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22226,7 +24911,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22269,7 +24954,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22305,7 +24990,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22343,7 +25028,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22381,7 +25066,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B75F091-D886-4962-BE44-55A728CC26BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B75F091-D886-4962-BE44-55A728CC26BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22422,7 +25107,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22460,7 +25145,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22498,7 +25183,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22536,7 +25221,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B75F091-D886-4962-BE44-55A728CC26BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B75F091-D886-4962-BE44-55A728CC26BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22579,7 +25264,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22617,7 +25302,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22660,7 +25345,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22696,7 +25381,88 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23005,7 +25771,7 @@
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23047,12 +25813,320 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10000000</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <f>A3*B3</f>
+        <v>100000</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="I3" s="9">
+        <f>($C3*$D3*NUMBERS!$C$2/1024/1024)/F3</f>
+        <v>2.7247837611607144E-2</v>
+      </c>
+      <c r="J3" s="9">
+        <f>($C3*$D3*NUMBERS!$C$2/1024/1024)/G3</f>
+        <v>2.7247837611607144E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10000000</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C10" si="0">A4*B4</f>
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="I4" s="9">
+        <f>($C4*$D4*NUMBERS!$C$2/1024/1024)/F4</f>
+        <v>3.467906605113636E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <f>($C4*$D4*NUMBERS!$C$2/1024/1024)/G4</f>
+        <v>3.3171280570652176E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10000000</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+      <c r="I5" s="9">
+        <f>($C5*$D5*NUMBERS!$C$2/1024/1024)/F5</f>
+        <v>4.9221900201612906E-2</v>
+      </c>
+      <c r="J5" s="9">
+        <f>($C5*$D5*NUMBERS!$C$2/1024/1024)/G5</f>
+        <v>4.2385525173611112E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10000000</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>36</v>
+      </c>
+      <c r="I6" s="9">
+        <f>($C6*$D6*NUMBERS!$C$2/1024/1024)/F6</f>
+        <v>4.9221900201612906E-2</v>
+      </c>
+      <c r="J6" s="9">
+        <f>($C6*$D6*NUMBERS!$C$2/1024/1024)/G6</f>
+        <v>4.2385525173611112E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10000000</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>37</v>
+      </c>
+      <c r="I7" s="9">
+        <f>($C7*$D7*NUMBERS!$C$2/1024/1024)/F7</f>
+        <v>4.9221900201612906E-2</v>
+      </c>
+      <c r="J7" s="9">
+        <f>($C7*$D7*NUMBERS!$C$2/1024/1024)/G7</f>
+        <v>4.1239970439189186E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10000000</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>39</v>
+      </c>
+      <c r="I8" s="9">
+        <f>($C8*$D8*NUMBERS!$C$2/1024/1024)/F8</f>
+        <v>4.9221900201612906E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <f>($C8*$D8*NUMBERS!$C$2/1024/1024)/G8</f>
+        <v>3.9125100160256408E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10000000</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+      <c r="I9" s="9">
+        <f>($C9*$D9*NUMBERS!$C$2/1024/1024)/F9</f>
+        <v>4.9221900201612906E-2</v>
+      </c>
+      <c r="J9" s="9">
+        <f>($C9*$D9*NUMBERS!$C$2/1024/1024)/G9</f>
+        <v>3.9125100160256408E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10000000</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>39</v>
+      </c>
+      <c r="I10" s="9">
+        <f>($C10*$D10*NUMBERS!$C$2/1024/1024)/F10</f>
+        <v>4.6238754734848488E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <f>($C10*$D10*NUMBERS!$C$2/1024/1024)/G10</f>
+        <v>3.9125100160256408E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView topLeftCell="A9" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25301,8 +28375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="D3" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27024,7 +30098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="87" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -31349,8 +34423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView topLeftCell="H12" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33049,4 +36123,2244 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M102"/>
+  <sheetViews>
+    <sheetView topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1000000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3689501</v>
+      </c>
+      <c r="E4">
+        <v>3689550</v>
+      </c>
+      <c r="G4">
+        <f>A4</f>
+        <v>1000000</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUMIF($C$4:$C$35,H4,$D$4:$D$35)/$G$2/$G$2</f>
+        <v>942717.25</v>
+      </c>
+      <c r="J4" s="4">
+        <f>SUMIF($C$37:$C$68,H4,$D$37:$D$68)/$G$2/$G$2</f>
+        <v>769300.5</v>
+      </c>
+      <c r="L4">
+        <f>D70</f>
+        <v>3186072</v>
+      </c>
+      <c r="M4">
+        <f>D78</f>
+        <v>3417083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1000000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3830665</v>
+      </c>
+      <c r="E5">
+        <v>3830660</v>
+      </c>
+      <c r="G5">
+        <f>G4</f>
+        <v>1000000</v>
+      </c>
+      <c r="H5">
+        <f>H4*2</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I11" si="0">SUMIF($C$4:$C$35,H5,$D$4:$D$35)/$G$2/$G$2</f>
+        <v>942802.4375</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J11" si="1">SUMIF($C$37:$C$68,H5,$D$37:$D$68)/$G$2/$G$2</f>
+        <v>763442.875</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L11" si="2">D71</f>
+        <v>3255051</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M11" si="3">D79</f>
+        <v>3936402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1000000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3633497</v>
+      </c>
+      <c r="E6">
+        <v>3633500</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G11" si="4">G5</f>
+        <v>1000000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H11" si="5">H5*2</f>
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>970822.5</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>754964.5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>3648028</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>3427879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3929813</v>
+      </c>
+      <c r="E7">
+        <v>3929820</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>1048549.0625</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>766804.1875</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>3998985</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>3414947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1000000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3653154</v>
+      </c>
+      <c r="E8">
+        <v>3653140</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>1564729.125</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>753424.1875</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>5645843</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>3387692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1000000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3736733</v>
+      </c>
+      <c r="E9">
+        <v>3736720</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>3025682.4375</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>771027.125</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>11688401</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>3399341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1000000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3759429</v>
+      </c>
+      <c r="E10">
+        <v>3759420</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>4011067.75</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>762924.4375</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>13419790</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>3399429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1000000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3935523</v>
+      </c>
+      <c r="E11">
+        <v>3935520</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>3791842.875</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>756933.4375</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>11884424</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>3426434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1000000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>3783706</v>
+      </c>
+      <c r="E12">
+        <v>3783700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1000000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3834353</v>
+      </c>
+      <c r="E13">
+        <v>3834320</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1000000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4039302</v>
+      </c>
+      <c r="E14">
+        <v>4039280</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1000000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3875799</v>
+      </c>
+      <c r="E15">
+        <v>3875800</v>
+      </c>
+      <c r="I15" s="1">
+        <f>I4*NUMBERS!$C$3</f>
+        <v>0.94271724999999995</v>
+      </c>
+      <c r="J15" s="1">
+        <f>J4*NUMBERS!$C$3</f>
+        <v>0.76930049999999994</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <f>L4*NUMBERS!$C$3</f>
+        <v>3.1860719999999998</v>
+      </c>
+      <c r="M15" s="1">
+        <f>M4*NUMBERS!$C$3</f>
+        <v>3.4170829999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1000000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>4177096</v>
+      </c>
+      <c r="E16">
+        <v>4177090</v>
+      </c>
+      <c r="I16" s="1">
+        <f>I5*NUMBERS!$C$3</f>
+        <v>0.94280243749999992</v>
+      </c>
+      <c r="J16" s="1">
+        <f>J5*NUMBERS!$C$3</f>
+        <v>0.76344287499999997</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <f>L5*NUMBERS!$C$3</f>
+        <v>3.2550509999999999</v>
+      </c>
+      <c r="M16" s="1">
+        <f>M5*NUMBERS!$C$3</f>
+        <v>3.9364019999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1000000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>4186530</v>
+      </c>
+      <c r="E17">
+        <v>4186510</v>
+      </c>
+      <c r="I17" s="1">
+        <f>I6*NUMBERS!$C$3</f>
+        <v>0.97082249999999992</v>
+      </c>
+      <c r="J17" s="1">
+        <f>J6*NUMBERS!$C$3</f>
+        <v>0.75496449999999993</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
+        <f>L6*NUMBERS!$C$3</f>
+        <v>3.648028</v>
+      </c>
+      <c r="M17" s="1">
+        <f>M6*NUMBERS!$C$3</f>
+        <v>3.4278789999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>4458732</v>
+      </c>
+      <c r="E18">
+        <v>4458730</v>
+      </c>
+      <c r="I18" s="1">
+        <f>I7*NUMBERS!$C$3</f>
+        <v>1.0485490625</v>
+      </c>
+      <c r="J18" s="1">
+        <f>J7*NUMBERS!$C$3</f>
+        <v>0.76680418750000001</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <f>L7*NUMBERS!$C$3</f>
+        <v>3.9989849999999998</v>
+      </c>
+      <c r="M18" s="1">
+        <f>M7*NUMBERS!$C$3</f>
+        <v>3.4149469999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>3954427</v>
+      </c>
+      <c r="E19">
+        <v>3954430</v>
+      </c>
+      <c r="I19" s="1">
+        <f>I8*NUMBERS!$C$3</f>
+        <v>1.5647291249999999</v>
+      </c>
+      <c r="J19" s="1">
+        <f>J8*NUMBERS!$C$3</f>
+        <v>0.75342418749999995</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
+        <f>L8*NUMBERS!$C$3</f>
+        <v>5.6458430000000002</v>
+      </c>
+      <c r="M19" s="1">
+        <f>M8*NUMBERS!$C$3</f>
+        <v>3.3876919999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1000000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>5902493</v>
+      </c>
+      <c r="E20">
+        <v>5902480</v>
+      </c>
+      <c r="I20" s="1">
+        <f>I9*NUMBERS!$C$3</f>
+        <v>3.0256824375</v>
+      </c>
+      <c r="J20" s="1">
+        <f>J9*NUMBERS!$C$3</f>
+        <v>0.77102712499999992</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
+        <f>L9*NUMBERS!$C$3</f>
+        <v>11.688400999999999</v>
+      </c>
+      <c r="M20" s="1">
+        <f>M9*NUMBERS!$C$3</f>
+        <v>3.3993409999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1000000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>6100322</v>
+      </c>
+      <c r="E21">
+        <v>6100320</v>
+      </c>
+      <c r="I21" s="1">
+        <f>I10*NUMBERS!$C$3</f>
+        <v>4.0110677499999996</v>
+      </c>
+      <c r="J21" s="1">
+        <f>J10*NUMBERS!$C$3</f>
+        <v>0.76292443749999994</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
+        <f>L10*NUMBERS!$C$3</f>
+        <v>13.419789999999999</v>
+      </c>
+      <c r="M21" s="1">
+        <f>M10*NUMBERS!$C$3</f>
+        <v>3.399429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1000000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>6006643</v>
+      </c>
+      <c r="E22">
+        <v>6006640</v>
+      </c>
+      <c r="I22" s="1">
+        <f>I11*NUMBERS!$C$3</f>
+        <v>3.7918428749999999</v>
+      </c>
+      <c r="J22" s="1">
+        <f>J11*NUMBERS!$C$3</f>
+        <v>0.75693343749999997</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <f>L11*NUMBERS!$C$3</f>
+        <v>11.884423999999999</v>
+      </c>
+      <c r="M22" s="1">
+        <f>M11*NUMBERS!$C$3</f>
+        <v>3.426434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1000000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>7026208</v>
+      </c>
+      <c r="E23">
+        <v>7026200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1000000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>11863172</v>
+      </c>
+      <c r="E24">
+        <v>11863170</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1000000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>11589701</v>
+      </c>
+      <c r="E25">
+        <v>11589690</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1000000</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>12364198</v>
+      </c>
+      <c r="E26">
+        <v>12364190</v>
+      </c>
+      <c r="I26" s="2">
+        <f>$G4*NUMBERS!$C$2/I4*NUMBERS!$C$4</f>
+        <v>4.0464914221363832</v>
+      </c>
+      <c r="J26" s="2">
+        <f>$G4*NUMBERS!$C$2/J4*NUMBERS!$C$4</f>
+        <v>4.9586569430606122</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2">
+        <f>$G4*NUMBERS!$C$2/L4*NUMBERS!$C$4</f>
+        <v>1.1973041618723619</v>
+      </c>
+      <c r="M26" s="2">
+        <f>$G4*NUMBERS!$C$2/M4*NUMBERS!$C$4</f>
+        <v>1.1163607280317744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1000000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>12593848</v>
+      </c>
+      <c r="E27">
+        <v>12593850</v>
+      </c>
+      <c r="I27" s="2">
+        <f>$G5*NUMBERS!$C$2/I5*NUMBERS!$C$4</f>
+        <v>4.0461257988898653</v>
+      </c>
+      <c r="J27" s="2">
+        <f>$G5*NUMBERS!$C$2/J5*NUMBERS!$C$4</f>
+        <v>4.9967029499423905</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2">
+        <f>$G5*NUMBERS!$C$2/L5*NUMBERS!$C$4</f>
+        <v>1.1719316427377022</v>
+      </c>
+      <c r="M27" s="2">
+        <f>$G5*NUMBERS!$C$2/M5*NUMBERS!$C$4</f>
+        <v>0.96908223947274685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1000000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>13170209</v>
+      </c>
+      <c r="E28">
+        <v>13170210</v>
+      </c>
+      <c r="I28" s="2">
+        <f>$G6*NUMBERS!$C$2/I6*NUMBERS!$C$4</f>
+        <v>3.9293457512830616</v>
+      </c>
+      <c r="J28" s="2">
+        <f>$G6*NUMBERS!$C$2/J6*NUMBERS!$C$4</f>
+        <v>5.0528167425421984</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2">
+        <f>$G6*NUMBERS!$C$2/L6*NUMBERS!$C$4</f>
+        <v>1.0456874962651055</v>
+      </c>
+      <c r="M28" s="2">
+        <f>$G6*NUMBERS!$C$2/M6*NUMBERS!$C$4</f>
+        <v>1.1128447840851441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1000000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>64</v>
+      </c>
+      <c r="D29">
+        <v>13468219</v>
+      </c>
+      <c r="E29">
+        <v>13468230</v>
+      </c>
+      <c r="I29" s="2">
+        <f>$G7*NUMBERS!$C$2/I7*NUMBERS!$C$4</f>
+        <v>3.6380722677199473</v>
+      </c>
+      <c r="J29" s="2">
+        <f>$G7*NUMBERS!$C$2/J7*NUMBERS!$C$4</f>
+        <v>4.9747997308960965</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2">
+        <f>$G7*NUMBERS!$C$2/L7*NUMBERS!$C$4</f>
+        <v>0.95391637268581908</v>
+      </c>
+      <c r="M29" s="2">
+        <f>$G7*NUMBERS!$C$2/M7*NUMBERS!$C$4</f>
+        <v>1.1170589955349235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1000000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>18786320</v>
+      </c>
+      <c r="E30">
+        <v>18786310</v>
+      </c>
+      <c r="I30" s="2">
+        <f>$G8*NUMBERS!$C$2/I8*NUMBERS!$C$4</f>
+        <v>2.437928204106893</v>
+      </c>
+      <c r="J30" s="2">
+        <f>$G8*NUMBERS!$C$2/J8*NUMBERS!$C$4</f>
+        <v>5.0631468021790846</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2">
+        <f>$G8*NUMBERS!$C$2/L8*NUMBERS!$C$4</f>
+        <v>0.67566477948908599</v>
+      </c>
+      <c r="M30" s="2">
+        <f>$G8*NUMBERS!$C$2/M8*NUMBERS!$C$4</f>
+        <v>1.1260460707835895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1000000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <v>18752336</v>
+      </c>
+      <c r="E31">
+        <v>18752330</v>
+      </c>
+      <c r="I31" s="2">
+        <f>$G9*NUMBERS!$C$2/I9*NUMBERS!$C$4</f>
+        <v>1.2607725180759324</v>
+      </c>
+      <c r="J31" s="2">
+        <f>$G9*NUMBERS!$C$2/J9*NUMBERS!$C$4</f>
+        <v>4.9475526112327115</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2">
+        <f>$G9*NUMBERS!$C$2/L9*NUMBERS!$C$4</f>
+        <v>0.32636605003755431</v>
+      </c>
+      <c r="M31" s="2">
+        <f>$G9*NUMBERS!$C$2/M9*NUMBERS!$C$4</f>
+        <v>1.1221872903086216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1000000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>128</v>
+      </c>
+      <c r="D32">
+        <v>11583322</v>
+      </c>
+      <c r="E32">
+        <v>11583320</v>
+      </c>
+      <c r="I32" s="2">
+        <f>$G10*NUMBERS!$C$2/I10*NUMBERS!$C$4</f>
+        <v>0.95104284030729724</v>
+      </c>
+      <c r="J32" s="2">
+        <f>$G10*NUMBERS!$C$2/J10*NUMBERS!$C$4</f>
+        <v>5.0000984083368021</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2">
+        <f>$G10*NUMBERS!$C$2/L10*NUMBERS!$C$4</f>
+        <v>0.28425908793095866</v>
+      </c>
+      <c r="M32" s="2">
+        <f>$G10*NUMBERS!$C$2/M10*NUMBERS!$C$4</f>
+        <v>1.1221582405824626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1000000</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>128</v>
+      </c>
+      <c r="D33">
+        <v>12836183</v>
+      </c>
+      <c r="E33">
+        <v>12836180</v>
+      </c>
+      <c r="I33" s="2">
+        <f>$G11*NUMBERS!$C$2/I11*NUMBERS!$C$4</f>
+        <v>1.0060272514917961</v>
+      </c>
+      <c r="J33" s="2">
+        <f>$G11*NUMBERS!$C$2/J11*NUMBERS!$C$4</f>
+        <v>5.039673340662798</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2">
+        <f>$G11*NUMBERS!$C$2/L11*NUMBERS!$C$4</f>
+        <v>0.32098293241851689</v>
+      </c>
+      <c r="M33" s="2">
+        <f>$G11*NUMBERS!$C$2/M11*NUMBERS!$C$4</f>
+        <v>1.1133140943689561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1000000</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>128</v>
+      </c>
+      <c r="D34">
+        <v>18118965</v>
+      </c>
+      <c r="E34">
+        <v>18118810</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1000000</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>128</v>
+      </c>
+      <c r="D35">
+        <v>18131016</v>
+      </c>
+      <c r="E35">
+        <v>18131010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1000000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2962990</v>
+      </c>
+      <c r="E37">
+        <v>2962980</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1000000</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>3001280</v>
+      </c>
+      <c r="E38">
+        <v>3001280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1000000</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>3151471</v>
+      </c>
+      <c r="E39">
+        <v>3151470</v>
+      </c>
+      <c r="I39">
+        <v>10000000</v>
+      </c>
+      <c r="J39">
+        <f>I39*4/1024/1024</f>
+        <v>38.14697265625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1000000</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>3193067</v>
+      </c>
+      <c r="E40">
+        <v>3193060</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1000000</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2941990</v>
+      </c>
+      <c r="E41">
+        <v>2942120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1000000</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2987975</v>
+      </c>
+      <c r="E42">
+        <v>2987960</v>
+      </c>
+      <c r="I42">
+        <f>I39*4/1024/1024/I40</f>
+        <v>0.3814697265625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1000000</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>3128442</v>
+      </c>
+      <c r="E43">
+        <v>3128430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1000000</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>3156679</v>
+      </c>
+      <c r="E44">
+        <v>3156680</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1000000</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>2961637</v>
+      </c>
+      <c r="E45">
+        <v>2961640</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1000000</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>3089877</v>
+      </c>
+      <c r="E46">
+        <v>3089880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1000000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>2962609</v>
+      </c>
+      <c r="E47">
+        <v>2962600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1000000</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>3065309</v>
+      </c>
+      <c r="E48">
+        <v>3065310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1000000</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>2965287</v>
+      </c>
+      <c r="E49">
+        <v>2965280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1000000</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>3191550</v>
+      </c>
+      <c r="E50">
+        <v>3191550</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1000000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>3051880</v>
+      </c>
+      <c r="E51">
+        <v>3051880</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1000000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>3060150</v>
+      </c>
+      <c r="E52">
+        <v>3060150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1000000</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>2974272</v>
+      </c>
+      <c r="E53">
+        <v>2974270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1000000</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>3106241</v>
+      </c>
+      <c r="E54">
+        <v>3106230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1000000</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>2984800</v>
+      </c>
+      <c r="E55">
+        <v>2984800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1000000</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <v>2989474</v>
+      </c>
+      <c r="E56">
+        <v>2989470</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1000000</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <v>32</v>
+      </c>
+      <c r="D57">
+        <v>3067202</v>
+      </c>
+      <c r="E57">
+        <v>3067200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1000000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>3067372</v>
+      </c>
+      <c r="E58">
+        <v>3067370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1000000</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59">
+        <v>32</v>
+      </c>
+      <c r="D59">
+        <v>3139490</v>
+      </c>
+      <c r="E59">
+        <v>3139480</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1000000</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60">
+        <v>32</v>
+      </c>
+      <c r="D60">
+        <v>3062370</v>
+      </c>
+      <c r="E60">
+        <v>3062370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1000000</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61">
+        <v>64</v>
+      </c>
+      <c r="D61">
+        <v>2977603</v>
+      </c>
+      <c r="E61">
+        <v>2977590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1000000</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62">
+        <v>64</v>
+      </c>
+      <c r="D62">
+        <v>3097187</v>
+      </c>
+      <c r="E62">
+        <v>3097190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1000000</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63">
+        <v>64</v>
+      </c>
+      <c r="D63">
+        <v>3060521</v>
+      </c>
+      <c r="E63">
+        <v>3060530</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1000000</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>3071480</v>
+      </c>
+      <c r="E64">
+        <v>3071480</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1000000</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65">
+        <v>128</v>
+      </c>
+      <c r="D65">
+        <v>3099055</v>
+      </c>
+      <c r="E65">
+        <v>3099050</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1000000</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66">
+        <v>128</v>
+      </c>
+      <c r="D66">
+        <v>2942715</v>
+      </c>
+      <c r="E66">
+        <v>2942710</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1000000</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67">
+        <v>128</v>
+      </c>
+      <c r="D67">
+        <v>3054320</v>
+      </c>
+      <c r="E67">
+        <v>3054320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1000000</v>
+      </c>
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <v>128</v>
+      </c>
+      <c r="D68">
+        <v>3014845</v>
+      </c>
+      <c r="E68">
+        <v>3014850</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1000000</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>3186072</v>
+      </c>
+      <c r="E70">
+        <v>3186070</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1000000</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>3255051</v>
+      </c>
+      <c r="E71">
+        <v>3255020</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1000000</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>3648028</v>
+      </c>
+      <c r="E72">
+        <v>3648020</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1000000</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>3998985</v>
+      </c>
+      <c r="E73">
+        <v>3998980</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1000000</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>5645843</v>
+      </c>
+      <c r="E74">
+        <v>5645840</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1000000</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75">
+        <v>32</v>
+      </c>
+      <c r="D75">
+        <v>11688401</v>
+      </c>
+      <c r="E75">
+        <v>11688380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1000000</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76">
+        <v>64</v>
+      </c>
+      <c r="D76">
+        <v>13419790</v>
+      </c>
+      <c r="E76">
+        <v>13419730</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1000000</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77">
+        <v>128</v>
+      </c>
+      <c r="D77">
+        <v>11884424</v>
+      </c>
+      <c r="E77">
+        <v>11884410</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1000000</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>3417083</v>
+      </c>
+      <c r="E78">
+        <v>3417060</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1000000</v>
+      </c>
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>3936402</v>
+      </c>
+      <c r="E79">
+        <v>3936390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1000000</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>3427879</v>
+      </c>
+      <c r="E80">
+        <v>3427830</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1000000</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>3414947</v>
+      </c>
+      <c r="E81">
+        <v>3414940</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1000000</v>
+      </c>
+      <c r="B82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>3387692</v>
+      </c>
+      <c r="E82">
+        <v>3387690</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1000000</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83">
+        <v>32</v>
+      </c>
+      <c r="D83">
+        <v>3399341</v>
+      </c>
+      <c r="E83">
+        <v>3399290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1000000</v>
+      </c>
+      <c r="B84" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84">
+        <v>64</v>
+      </c>
+      <c r="D84">
+        <v>3399429</v>
+      </c>
+      <c r="E84">
+        <v>3399430</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1000000</v>
+      </c>
+      <c r="B85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85">
+        <v>128</v>
+      </c>
+      <c r="D85">
+        <v>3426434</v>
+      </c>
+      <c r="E85">
+        <v>3426420</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1000000</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>3609799</v>
+      </c>
+      <c r="E87">
+        <v>3609790</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1000000</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>3552431</v>
+      </c>
+      <c r="E88">
+        <v>3552420</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1000000</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>3669039</v>
+      </c>
+      <c r="E89">
+        <v>3669030</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1000000</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>4081515</v>
+      </c>
+      <c r="E90">
+        <v>4081500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1000000</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>5638194</v>
+      </c>
+      <c r="E91">
+        <v>5638180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1000000</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92">
+        <v>32</v>
+      </c>
+      <c r="D92">
+        <v>11814589</v>
+      </c>
+      <c r="E92">
+        <v>11814570</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1000000</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93">
+        <v>64</v>
+      </c>
+      <c r="D93">
+        <v>13616285</v>
+      </c>
+      <c r="E93">
+        <v>13616270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1000000</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94">
+        <v>128</v>
+      </c>
+      <c r="D94">
+        <v>11792613</v>
+      </c>
+      <c r="E94">
+        <v>11792610</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1000000</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>3453490</v>
+      </c>
+      <c r="E95">
+        <v>3453480</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1000000</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>3458105</v>
+      </c>
+      <c r="E96">
+        <v>3458080</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1000000</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>3436785</v>
+      </c>
+      <c r="E97">
+        <v>3436770</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1000000</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>4066324</v>
+      </c>
+      <c r="E98">
+        <v>4066320</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1000000</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>3466247</v>
+      </c>
+      <c r="E99">
+        <v>3466190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1000000</v>
+      </c>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100">
+        <v>32</v>
+      </c>
+      <c r="D100">
+        <v>3453040</v>
+      </c>
+      <c r="E100">
+        <v>3453020</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1000000</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101">
+        <v>64</v>
+      </c>
+      <c r="D101">
+        <v>3440914</v>
+      </c>
+      <c r="E101">
+        <v>3440870</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1000000</v>
+      </c>
+      <c r="B102" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102">
+        <v>128</v>
+      </c>
+      <c r="D102">
+        <v>3472664</v>
+      </c>
+      <c r="E102">
+        <v>3472660</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tests/results/vm-results.xlsx
+++ b/tests/results/vm-results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="20180" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="NUMBERS" sheetId="3" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="scan" sheetId="4" r:id="rId6"/>
     <sheet name="threads (8 )" sheetId="13" r:id="rId7"/>
     <sheet name="threads (4)" sheetId="10" r:id="rId8"/>
-    <sheet name="materialize" sheetId="11" r:id="rId9"/>
-    <sheet name="hana" sheetId="15" r:id="rId10"/>
+    <sheet name="thread" sheetId="16" r:id="rId9"/>
+    <sheet name="materialize" sheetId="11" r:id="rId10"/>
+    <sheet name="hana" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="times_insert" localSheetId="1">insert!$A$4:$H$12</definedName>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="62">
   <si>
     <t>in ns</t>
   </si>
@@ -279,6 +280,24 @@
   <si>
     <t>ACDOCA</t>
   </si>
+  <si>
+    <t>threads</t>
+  </si>
+  <si>
+    <t>cols</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>MB/ms</t>
+  </si>
+  <si>
+    <t>SUM ns / threads</t>
+  </si>
 </sst>
 </file>
 
@@ -345,14 +364,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1138,11 +1157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1999874144"/>
-        <c:axId val="-2001156160"/>
+        <c:axId val="2131616880"/>
+        <c:axId val="2131620112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1999874144"/>
+        <c:axId val="2131616880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2001156160"/>
+        <c:crossAx val="2131620112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1193,7 +1212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2001156160"/>
+        <c:axId val="2131620112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1999874144"/>
+        <c:crossAx val="2131616880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1615,11 +1634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2036053440"/>
-        <c:axId val="-1997739024"/>
+        <c:axId val="2132154736"/>
+        <c:axId val="2132160272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2036053440"/>
+        <c:axId val="2132154736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +1737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1997739024"/>
+        <c:crossAx val="2132160272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1726,7 +1745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1997739024"/>
+        <c:axId val="2132160272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,7 +1852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036053440"/>
+        <c:crossAx val="2132154736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2991,11 +3010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1992077920"/>
-        <c:axId val="-1987655312"/>
+        <c:axId val="2106704976"/>
+        <c:axId val="2113684992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1992077920"/>
+        <c:axId val="2106704976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,7 +3057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987655312"/>
+        <c:crossAx val="2113684992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3046,7 +3065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1987655312"/>
+        <c:axId val="2113684992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,7 +3172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1992077920"/>
+        <c:crossAx val="2106704976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3656,11 +3675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133010016"/>
-        <c:axId val="-2132919536"/>
+        <c:axId val="2106623104"/>
+        <c:axId val="2113639856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133010016"/>
+        <c:axId val="2106623104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3703,7 +3722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132919536"/>
+        <c:crossAx val="2113639856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3711,7 +3730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132919536"/>
+        <c:axId val="2113639856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3798,7 +3817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133010016"/>
+        <c:crossAx val="2106623104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4146,11 +4165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099829680"/>
-        <c:axId val="-2133012352"/>
+        <c:axId val="2113666528"/>
+        <c:axId val="2113669536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099829680"/>
+        <c:axId val="2113666528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4193,7 +4212,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133012352"/>
+        <c:crossAx val="2113669536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4201,7 +4220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133012352"/>
+        <c:axId val="2113669536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4283,7 +4302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099829680"/>
+        <c:crossAx val="2113666528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4411,7 +4430,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4695,11 +4713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2036231520"/>
-        <c:axId val="-1997839984"/>
+        <c:axId val="2132256400"/>
+        <c:axId val="2132261952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2036231520"/>
+        <c:axId val="2132256400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,7 +4749,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4798,7 +4815,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1997839984"/>
+        <c:crossAx val="2132261952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4806,7 +4823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1997839984"/>
+        <c:axId val="2132261952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150.0"/>
@@ -4853,7 +4870,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4914,7 +4930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036231520"/>
+        <c:crossAx val="2132256400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4928,7 +4944,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5555,11 +5570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1985083280"/>
-        <c:axId val="-1985166112"/>
+        <c:axId val="2132303312"/>
+        <c:axId val="2132308832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1985083280"/>
+        <c:axId val="2132303312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5658,7 +5673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1985166112"/>
+        <c:crossAx val="2132308832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5666,7 +5681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1985166112"/>
+        <c:axId val="2132308832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5773,7 +5788,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1985083280"/>
+        <c:crossAx val="2132303312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6409,11 +6424,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2032949744"/>
-        <c:axId val="-2030291984"/>
+        <c:axId val="2132344352"/>
+        <c:axId val="2132349904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2032949744"/>
+        <c:axId val="2132344352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6512,7 +6527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2030291984"/>
+        <c:crossAx val="2132349904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6520,7 +6535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2030291984"/>
+        <c:axId val="2132349904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6627,7 +6642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2032949744"/>
+        <c:crossAx val="2132344352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6743,7 +6758,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7233,11 +7247,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2035467760"/>
-        <c:axId val="-2036242256"/>
+        <c:axId val="2132380320"/>
+        <c:axId val="2132383472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2035467760"/>
+        <c:axId val="2132380320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7280,7 +7294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2036242256"/>
+        <c:crossAx val="2132383472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7288,7 +7302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2036242256"/>
+        <c:axId val="2132383472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7334,7 +7348,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7395,7 +7408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2035467760"/>
+        <c:crossAx val="2132380320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7528,7 +7541,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8018,11 +8030,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1984694992"/>
-        <c:axId val="-1984691824"/>
+        <c:axId val="2132437376"/>
+        <c:axId val="2132440528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1984694992"/>
+        <c:axId val="2132437376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8065,7 +8077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1984691824"/>
+        <c:crossAx val="2132440528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8073,7 +8085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1984691824"/>
+        <c:axId val="2132440528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8119,7 +8131,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8180,7 +8191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1984694992"/>
+        <c:crossAx val="2132437376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8798,11 +8809,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1987521056"/>
-        <c:axId val="-1987331120"/>
+        <c:axId val="2113772960"/>
+        <c:axId val="2113776112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1987521056"/>
+        <c:axId val="2113772960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8845,7 +8856,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987331120"/>
+        <c:crossAx val="2113776112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8853,7 +8864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1987331120"/>
+        <c:axId val="2113776112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8960,7 +8971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987521056"/>
+        <c:crossAx val="2113772960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9340,11 +9351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1982941232"/>
-        <c:axId val="-1982919712"/>
+        <c:axId val="2131724480"/>
+        <c:axId val="2131730000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1982941232"/>
+        <c:axId val="2131724480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9443,7 +9454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1982919712"/>
+        <c:crossAx val="2131730000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9451,7 +9462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1982919712"/>
+        <c:axId val="2131730000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9558,7 +9569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1982941232"/>
+        <c:crossAx val="2131724480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10169,11 +10180,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1999926448"/>
-        <c:axId val="-1999923216"/>
+        <c:axId val="2132496208"/>
+        <c:axId val="2132499360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1999926448"/>
+        <c:axId val="2132496208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10216,7 +10227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1999923216"/>
+        <c:crossAx val="2132499360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10224,7 +10235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1999923216"/>
+        <c:axId val="2132499360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10331,7 +10342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1999926448"/>
+        <c:crossAx val="2132496208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10816,11 +10827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1998294592"/>
-        <c:axId val="-2000706080"/>
+        <c:axId val="2132564432"/>
+        <c:axId val="2132570096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1998294592"/>
+        <c:axId val="2132564432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10919,7 +10930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2000706080"/>
+        <c:crossAx val="2132570096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10927,7 +10938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2000706080"/>
+        <c:axId val="2132570096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11034,7 +11045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1998294592"/>
+        <c:crossAx val="2132564432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11371,11 +11382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1999661408"/>
-        <c:axId val="-1987440928"/>
+        <c:axId val="2106604560"/>
+        <c:axId val="2106653552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1999661408"/>
+        <c:axId val="2106604560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11474,7 +11485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987440928"/>
+        <c:crossAx val="2106653552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11482,7 +11493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1987440928"/>
+        <c:axId val="2106653552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11589,7 +11600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1999661408"/>
+        <c:crossAx val="2106604560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11666,6 +11677,495 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Column Store</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>thread!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>thread!$N$5:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.456663611933034</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.839260778403621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.243718170205899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.632658598824043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.804172372057931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.809823151578795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.671124449563962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.680467613668353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Row Store</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>thread!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>thread!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.890729782886357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.956323027859635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.774186249722256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.15807907645224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.153813710335889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.14664234401775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.215351605466445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.156086215062411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2093243568"/>
+        <c:axId val="-2093230544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2093243568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2093230544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2093230544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MB/ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2093243568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -11947,11 +12447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1984760144"/>
-        <c:axId val="-1984232672"/>
+        <c:axId val="2113845552"/>
+        <c:axId val="2113851072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1984760144"/>
+        <c:axId val="2113845552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12050,7 +12550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1984232672"/>
+        <c:crossAx val="2113851072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12058,7 +12558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1984232672"/>
+        <c:axId val="2113851072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12165,7 +12665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1984760144"/>
+        <c:crossAx val="2113845552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12241,7 +12741,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -12344,11 +12844,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-1997347168"/>
-        <c:axId val="-2063645008"/>
+        <c:axId val="2132629600"/>
+        <c:axId val="2132632864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1997347168"/>
+        <c:axId val="2132629600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12390,7 +12890,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2063645008"/>
+        <c:crossAx val="2132632864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12398,7 +12898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2063645008"/>
+        <c:axId val="2132632864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12444,7 +12944,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12504,7 +13003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1997347168"/>
+        <c:crossAx val="2132629600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12865,11 +13364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2000494208"/>
-        <c:axId val="-2001387072"/>
+        <c:axId val="2131528144"/>
+        <c:axId val="2131578800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2000494208"/>
+        <c:axId val="2131528144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12912,7 +13411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2001387072"/>
+        <c:crossAx val="2131578800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12920,7 +13419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2001387072"/>
+        <c:axId val="2131578800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13026,7 +13525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2000494208"/>
+        <c:crossAx val="2131528144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13421,11 +13920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2001322800"/>
-        <c:axId val="-2001319840"/>
+        <c:axId val="2130788400"/>
+        <c:axId val="2130785392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2001322800"/>
+        <c:axId val="2130788400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13468,7 +13967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2001319840"/>
+        <c:crossAx val="2130785392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13476,7 +13975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2001319840"/>
+        <c:axId val="2130785392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13582,7 +14081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2001322800"/>
+        <c:crossAx val="2130788400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13710,7 +14209,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14494,11 +14992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1983351728"/>
-        <c:axId val="2120245456"/>
+        <c:axId val="2131907936"/>
+        <c:axId val="2131911072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1983351728"/>
+        <c:axId val="2131907936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14541,7 +15039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2120245456"/>
+        <c:crossAx val="2131911072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14549,7 +15047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2120245456"/>
+        <c:axId val="2131911072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14595,7 +15093,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14656,7 +15153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983351728"/>
+        <c:crossAx val="2131907936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14784,7 +15281,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15568,11 +16064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125300960"/>
-        <c:axId val="2125418880"/>
+        <c:axId val="2131957456"/>
+        <c:axId val="2131960672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125300960"/>
+        <c:axId val="2131957456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15615,7 +16111,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125418880"/>
+        <c:crossAx val="2131960672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15623,7 +16119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125418880"/>
+        <c:axId val="2131960672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15669,7 +16165,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15730,7 +16225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125300960"/>
+        <c:crossAx val="2131957456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15858,7 +16353,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16074,11 +16568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1986231216"/>
-        <c:axId val="-1986225680"/>
+        <c:axId val="2131997792"/>
+        <c:axId val="2132003328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1986231216"/>
+        <c:axId val="2131997792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16110,7 +16604,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16177,7 +16670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1986225680"/>
+        <c:crossAx val="2132003328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16185,7 +16678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1986225680"/>
+        <c:axId val="2132003328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16231,7 +16724,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16292,7 +16784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1986231216"/>
+        <c:crossAx val="2131997792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16306,7 +16798,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17057,11 +17548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1986286288"/>
-        <c:axId val="-1986262560"/>
+        <c:axId val="2132077744"/>
+        <c:axId val="2132080832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1986286288"/>
+        <c:axId val="2132077744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17104,7 +17595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1986262560"/>
+        <c:crossAx val="2132080832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17112,7 +17603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1986262560"/>
+        <c:axId val="2132080832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17219,7 +17710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1986286288"/>
+        <c:crossAx val="2132077744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17996,11 +18487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1983007424"/>
-        <c:axId val="-2115709280"/>
+        <c:axId val="2132136832"/>
+        <c:axId val="2132139920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1983007424"/>
+        <c:axId val="2132136832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18043,7 +18534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115709280"/>
+        <c:crossAx val="2132139920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18051,7 +18542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115709280"/>
+        <c:axId val="2132139920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18158,7 +18649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983007424"/>
+        <c:crossAx val="2132136832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18886,6 +19377,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -26209,7 +26740,7 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -26712,6 +27243,509 @@
 </file>
 
 <file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -30757,7 +31791,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30793,7 +31827,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30808,6 +31842,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -30836,7 +31905,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30872,7 +31941,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30915,7 +31984,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30953,7 +32022,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30991,7 +32060,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31034,7 +32103,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31072,7 +32141,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31110,7 +32179,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31153,7 +32222,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31189,7 +32258,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31227,7 +32296,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31265,7 +32334,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B75F091-D886-4962-BE44-55A728CC26BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B75F091-D886-4962-BE44-55A728CC26BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31370,7 +32439,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31408,7 +32477,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31451,7 +32520,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31489,7 +32558,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31527,7 +32596,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31565,7 +32634,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31592,15 +32661,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -31627,16 +32696,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31988,6 +33057,316 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10000000</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <f>A3*B3</f>
+        <v>100000</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7">
+        <f>($C3*$D3*NUMBERS!$C$2/1024/1024)/F3</f>
+        <v>2.7247837611607144E-2</v>
+      </c>
+      <c r="J3" s="7">
+        <f>($C3*$D3*NUMBERS!$C$2/1024/1024)/G3</f>
+        <v>2.7247837611607144E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10000000</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C10" si="0">A4*B4</f>
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <f>($C4*$D4*NUMBERS!$C$2/1024/1024)/F4</f>
+        <v>3.467906605113636E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <f>($C4*$D4*NUMBERS!$C$2/1024/1024)/G4</f>
+        <v>3.3171280570652176E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10000000</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+      <c r="I5" s="7">
+        <f>($C5*$D5*NUMBERS!$C$2/1024/1024)/F5</f>
+        <v>4.9221900201612906E-2</v>
+      </c>
+      <c r="J5" s="7">
+        <f>($C5*$D5*NUMBERS!$C$2/1024/1024)/G5</f>
+        <v>4.2385525173611112E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10000000</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>36</v>
+      </c>
+      <c r="I6" s="7">
+        <f>($C6*$D6*NUMBERS!$C$2/1024/1024)/F6</f>
+        <v>4.9221900201612906E-2</v>
+      </c>
+      <c r="J6" s="7">
+        <f>($C6*$D6*NUMBERS!$C$2/1024/1024)/G6</f>
+        <v>4.2385525173611112E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10000000</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>37</v>
+      </c>
+      <c r="I7" s="7">
+        <f>($C7*$D7*NUMBERS!$C$2/1024/1024)/F7</f>
+        <v>4.9221900201612906E-2</v>
+      </c>
+      <c r="J7" s="7">
+        <f>($C7*$D7*NUMBERS!$C$2/1024/1024)/G7</f>
+        <v>4.1239970439189186E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10000000</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>39</v>
+      </c>
+      <c r="I8" s="7">
+        <f>($C8*$D8*NUMBERS!$C$2/1024/1024)/F8</f>
+        <v>4.9221900201612906E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <f>($C8*$D8*NUMBERS!$C$2/1024/1024)/G8</f>
+        <v>3.9125100160256408E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10000000</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <v>31</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+      <c r="I9" s="7">
+        <f>($C9*$D9*NUMBERS!$C$2/1024/1024)/F9</f>
+        <v>4.9221900201612906E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <f>($C9*$D9*NUMBERS!$C$2/1024/1024)/G9</f>
+        <v>3.9125100160256408E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10000000</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>128</v>
+      </c>
+      <c r="F10">
+        <v>33</v>
+      </c>
+      <c r="G10">
+        <v>39</v>
+      </c>
+      <c r="I10" s="7">
+        <f>($C10*$D10*NUMBERS!$C$2/1024/1024)/F10</f>
+        <v>4.6238754734848488E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <f>($C10*$D10*NUMBERS!$C$2/1024/1024)/G10</f>
+        <v>3.9125100160256408E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32023,8 +33402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="F33" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32047,14 +33426,14 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -32293,14 +33672,14 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
@@ -32611,14 +33990,14 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
@@ -32984,20 +34363,20 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -33314,23 +34693,23 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -34273,7 +35652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="109" workbookViewId="0">
       <selection activeCell="W77" sqref="W77"/>
     </sheetView>
   </sheetViews>
@@ -34300,23 +35679,23 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -35200,27 +36579,27 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="10"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="9"/>
+      <c r="R2" s="10"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
     </row>
@@ -35311,7 +36690,7 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>0</v>
       </c>
       <c r="L4" s="4">
@@ -35370,7 +36749,7 @@
       <c r="G5">
         <v>26384185</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>0.2</v>
       </c>
       <c r="L5" s="4">
@@ -35429,7 +36808,7 @@
       <c r="G6">
         <v>26494652</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>0.4</v>
       </c>
       <c r="L6" s="4">
@@ -35488,7 +36867,7 @@
       <c r="G7">
         <v>26479249</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <v>0.6</v>
       </c>
       <c r="L7" s="4">
@@ -35547,7 +36926,7 @@
       <c r="G8">
         <v>26552375</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>0.8</v>
       </c>
       <c r="L8" s="4">
@@ -35606,7 +36985,7 @@
       <c r="G9">
         <v>27381013</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>1</v>
       </c>
       <c r="L9" s="4">
@@ -35682,7 +37061,7 @@
       <c r="I11">
         <v>2</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <v>0</v>
       </c>
       <c r="L11" s="4">
@@ -35741,7 +37120,7 @@
       <c r="G12">
         <v>26584313</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <v>0.2</v>
       </c>
       <c r="L12" s="4">
@@ -35800,7 +37179,7 @@
       <c r="G13">
         <v>26435783</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="9">
         <v>0.4</v>
       </c>
       <c r="L13" s="4">
@@ -35859,7 +37238,7 @@
       <c r="G14">
         <v>26625520</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>0.6</v>
       </c>
       <c r="L14" s="4">
@@ -35918,7 +37297,7 @@
       <c r="G15">
         <v>26718989</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="9">
         <v>0.8</v>
       </c>
       <c r="L15" s="4">
@@ -35977,7 +37356,7 @@
       <c r="G16">
         <v>26517701</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="9">
         <v>1</v>
       </c>
       <c r="L16" s="4">
@@ -36053,7 +37432,7 @@
       <c r="I18">
         <v>4</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="9">
         <v>0</v>
       </c>
       <c r="L18" s="4">
@@ -36112,7 +37491,7 @@
       <c r="G19">
         <v>26701273</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="9">
         <v>0.2</v>
       </c>
       <c r="L19" s="4">
@@ -36171,7 +37550,7 @@
       <c r="G20">
         <v>26885357</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="9">
         <v>0.4</v>
       </c>
       <c r="L20" s="4">
@@ -36230,7 +37609,7 @@
       <c r="G21">
         <v>26611820</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="9">
         <v>0.6</v>
       </c>
       <c r="L21" s="4">
@@ -36289,7 +37668,7 @@
       <c r="G22">
         <v>26541718</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="9">
         <v>0.8</v>
       </c>
       <c r="L22" s="4">
@@ -36348,7 +37727,7 @@
       <c r="G23">
         <v>26461634</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="9">
         <v>1</v>
       </c>
       <c r="L23" s="4">
@@ -36424,7 +37803,7 @@
       <c r="I25">
         <v>8</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="9">
         <v>0</v>
       </c>
       <c r="L25" s="4">
@@ -36483,7 +37862,7 @@
       <c r="G26">
         <v>26524797</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="9">
         <v>0.2</v>
       </c>
       <c r="L26" s="4">
@@ -36542,7 +37921,7 @@
       <c r="G27">
         <v>26688134</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="9">
         <v>0.4</v>
       </c>
       <c r="L27" s="4">
@@ -36601,7 +37980,7 @@
       <c r="G28">
         <v>26361750</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="9">
         <v>0.6</v>
       </c>
       <c r="L28" s="4">
@@ -36660,7 +38039,7 @@
       <c r="G29">
         <v>26666674</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="9">
         <v>0.8</v>
       </c>
       <c r="L29" s="4">
@@ -36719,7 +38098,7 @@
       <c r="G30">
         <v>26685658</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="9">
         <v>1</v>
       </c>
       <c r="L30" s="4">
@@ -36795,7 +38174,7 @@
       <c r="I32">
         <v>16</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="9">
         <v>0</v>
       </c>
       <c r="L32" s="4">
@@ -36854,7 +38233,7 @@
       <c r="G33">
         <v>26386270</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="9">
         <v>0.2</v>
       </c>
       <c r="L33" s="4">
@@ -36913,7 +38292,7 @@
       <c r="G34">
         <v>26602347</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="9">
         <v>0.4</v>
       </c>
       <c r="L34" s="4">
@@ -36972,7 +38351,7 @@
       <c r="G35">
         <v>26507104</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="9">
         <v>0.6</v>
       </c>
       <c r="L35" s="4">
@@ -37031,7 +38410,7 @@
       <c r="G36">
         <v>26726431</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="9">
         <v>0.8</v>
       </c>
       <c r="L36" s="4">
@@ -37090,7 +38469,7 @@
       <c r="G37">
         <v>26598062</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="9">
         <v>1</v>
       </c>
       <c r="L37" s="4">
@@ -37166,7 +38545,7 @@
       <c r="I39">
         <v>32</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="9">
         <v>0</v>
       </c>
       <c r="L39" s="4">
@@ -37225,7 +38604,7 @@
       <c r="G40">
         <v>26498719</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="9">
         <v>0.2</v>
       </c>
       <c r="L40" s="4">
@@ -37284,7 +38663,7 @@
       <c r="G41">
         <v>26486197</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="9">
         <v>0.4</v>
       </c>
       <c r="L41" s="4">
@@ -37343,7 +38722,7 @@
       <c r="G42">
         <v>26776239</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="9">
         <v>0.6</v>
       </c>
       <c r="L42" s="4">
@@ -37402,7 +38781,7 @@
       <c r="G43">
         <v>26580194</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="9">
         <v>0.8</v>
       </c>
       <c r="L43" s="4">
@@ -37461,7 +38840,7 @@
       <c r="G44">
         <v>26622198</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="9">
         <v>1</v>
       </c>
       <c r="L44" s="4">
@@ -37537,7 +38916,7 @@
       <c r="I46">
         <v>64</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="9">
         <v>0</v>
       </c>
       <c r="L46" s="4">
@@ -37596,7 +38975,7 @@
       <c r="G47">
         <v>26694571</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="9">
         <v>0.2</v>
       </c>
       <c r="L47" s="4">
@@ -37655,7 +39034,7 @@
       <c r="G48">
         <v>26458537</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="9">
         <v>0.4</v>
       </c>
       <c r="L48" s="4">
@@ -37714,7 +39093,7 @@
       <c r="G49">
         <v>26424107</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="9">
         <v>0.6</v>
       </c>
       <c r="L49" s="4">
@@ -37773,7 +39152,7 @@
       <c r="G50">
         <v>26737465</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="9">
         <v>0.8</v>
       </c>
       <c r="L50" s="4">
@@ -37832,7 +39211,7 @@
       <c r="G51">
         <v>26806277</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="9">
         <v>1</v>
       </c>
       <c r="L51" s="4">
@@ -37908,7 +39287,7 @@
       <c r="I53">
         <v>128</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="9">
         <v>0</v>
       </c>
       <c r="L53" s="4">
@@ -37967,7 +39346,7 @@
       <c r="G54">
         <v>26780849</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="9">
         <v>0.2</v>
       </c>
       <c r="L54" s="4">
@@ -38026,7 +39405,7 @@
       <c r="G55">
         <v>26486854</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="9">
         <v>0.4</v>
       </c>
       <c r="L55" s="4">
@@ -38085,7 +39464,7 @@
       <c r="G56">
         <v>26496178</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="9">
         <v>0.6</v>
       </c>
       <c r="L56" s="4">
@@ -38144,7 +39523,7 @@
       <c r="G57">
         <v>26507276</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="9">
         <v>0.8</v>
       </c>
       <c r="L57" s="4">
@@ -38203,7 +39582,7 @@
       <c r="G58">
         <v>27070033</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="9">
         <v>1</v>
       </c>
       <c r="L58" s="4">
@@ -38280,14 +39659,14 @@
       <c r="F2" s="3">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -38666,15 +40045,15 @@
       <c r="E13">
         <v>4999030</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="9"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -39011,15 +40390,15 @@
       <c r="E24">
         <v>4207790</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="9"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -41567,8 +42946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="99" workbookViewId="0">
-      <selection activeCell="Z55" sqref="Z55"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41591,14 +42970,14 @@
       <c r="G2" s="3">
         <v>4</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="L2" s="9" t="s">
+      <c r="J2" s="10"/>
+      <c r="L2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -41977,15 +43356,15 @@
       <c r="E13">
         <v>3068590</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -42322,15 +43701,15 @@
       <c r="E24">
         <v>11293480</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="9"/>
+      <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -43805,310 +45184,1468 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F1" s="10" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10000000</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="I1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
       <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>42826650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10000000</v>
       </c>
-      <c r="B3" s="6">
-        <v>0.01</v>
+      <c r="B3">
+        <v>8</v>
       </c>
       <c r="C3">
-        <f>A3*B3</f>
-        <v>100000</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="I3" s="7">
-        <f>($C3*$D3*NUMBERS!$C$2/1024/1024)/F3</f>
-        <v>2.7247837611607144E-2</v>
-      </c>
-      <c r="J3" s="7">
-        <f>($C3*$D3*NUMBERS!$C$2/1024/1024)/G3</f>
-        <v>2.7247837611607144E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38841613</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="M3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10000000</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.01</v>
+      <c r="B4">
+        <v>8</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C10" si="0">A4*B4</f>
-        <v>100000</v>
-      </c>
-      <c r="D4">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
       <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>22</v>
-      </c>
-      <c r="G4">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7">
-        <f>($C4*$D4*NUMBERS!$C$2/1024/1024)/F4</f>
-        <v>3.467906605113636E-2</v>
-      </c>
-      <c r="J4" s="7">
-        <f>($C4*$D4*NUMBERS!$C$2/1024/1024)/G4</f>
-        <v>3.3171280570652176E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>39155675</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10000000</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.01</v>
+      <c r="B5">
+        <v>8</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>31</v>
-      </c>
-      <c r="G5">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7">
-        <f>($C5*$D5*NUMBERS!$C$2/1024/1024)/F5</f>
-        <v>4.9221900201612906E-2</v>
-      </c>
-      <c r="J5" s="7">
-        <f>($C5*$D5*NUMBERS!$C$2/1024/1024)/G5</f>
-        <v>4.2385525173611112E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41281563</v>
+      </c>
+      <c r="H5">
+        <f>A2</f>
+        <v>10000000</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <f>SUMIF($C$2:$C$37,$I5,$E$2:$E$37)/I5</f>
+        <v>42826650</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SUMIF($C$38:$C$73,$I5,$E$38:$E$73)/I5</f>
+        <v>26187908</v>
+      </c>
+      <c r="M5">
+        <f>$H5*NUMBERS!$C$2*thread!$I5/thread!J5*NUMBERS!$C$4</f>
+        <v>0.89072978288635707</v>
+      </c>
+      <c r="N5">
+        <f>$H5*NUMBERS!$C$2*thread!$I5/thread!K5*NUMBERS!$C$4</f>
+        <v>1.4566636119330341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10000000</v>
       </c>
-      <c r="B6" s="6">
-        <v>0.01</v>
+      <c r="B6">
+        <v>8</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>31</v>
-      </c>
-      <c r="G6">
-        <v>36</v>
-      </c>
-      <c r="I6" s="7">
-        <f>($C6*$D6*NUMBERS!$C$2/1024/1024)/F6</f>
-        <v>4.9221900201612906E-2</v>
-      </c>
-      <c r="J6" s="7">
-        <f>($C6*$D6*NUMBERS!$C$2/1024/1024)/G6</f>
-        <v>4.2385525173611112E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41353204</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H12" si="0">A3</f>
+        <v>10000000</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" ref="J6:J12" si="1">SUMIF($C$2:$C$37,$I6,$E$2:$E$37)/I6</f>
+        <v>38998644</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" ref="K6:K12" si="2">SUMIF($C$38:$C$73,$I6,$E$38:$E$73)/I6</f>
+        <v>26871059.5</v>
+      </c>
+      <c r="M6">
+        <f>$H6*NUMBERS!$C$2*thread!$I6/thread!J6*NUMBERS!$C$4</f>
+        <v>1.9563230278596355</v>
+      </c>
+      <c r="N6">
+        <f>$H6*NUMBERS!$C$2*thread!$I6/thread!K6*NUMBERS!$C$4</f>
+        <v>2.8392607784036206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10000000</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.01</v>
+      <c r="B7">
+        <v>8</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>41121435</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>31</v>
-      </c>
-      <c r="G7">
-        <v>37</v>
-      </c>
-      <c r="I7" s="7">
-        <f>($C7*$D7*NUMBERS!$C$2/1024/1024)/F7</f>
-        <v>4.9221900201612906E-2</v>
-      </c>
-      <c r="J7" s="7">
-        <f>($C7*$D7*NUMBERS!$C$2/1024/1024)/G7</f>
-        <v>4.1239970439189186E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10000000</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>41252067.333333336</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="2"/>
+        <v>26967134.333333332</v>
+      </c>
+      <c r="M7">
+        <f>$H7*NUMBERS!$C$2*thread!$I7/thread!J7*NUMBERS!$C$4</f>
+        <v>2.774186249722256</v>
+      </c>
+      <c r="N7">
+        <f>$H7*NUMBERS!$C$2*thread!$I7/thread!K7*NUMBERS!$C$4</f>
+        <v>4.2437181702058986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10000000</v>
       </c>
-      <c r="B8" s="6">
-        <v>0.01</v>
+      <c r="B8">
+        <v>8</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>48323860</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="D8">
+        <v>10000000</v>
+      </c>
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>39</v>
-      </c>
-      <c r="I8" s="7">
-        <f>($C8*$D8*NUMBERS!$C$2/1024/1024)/F8</f>
-        <v>4.9221900201612906E-2</v>
-      </c>
-      <c r="J8" s="7">
-        <f>($C8*$D8*NUMBERS!$C$2/1024/1024)/G8</f>
-        <v>3.9125100160256408E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>48316678.25</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="2"/>
+        <v>27089852.5</v>
+      </c>
+      <c r="M8">
+        <f>$H8*NUMBERS!$C$2*thread!$I8/thread!J8*NUMBERS!$C$4</f>
+        <v>3.1580790764522391</v>
+      </c>
+      <c r="N8">
+        <f>$H8*NUMBERS!$C$2*thread!$I8/thread!K8*NUMBERS!$C$4</f>
+        <v>5.632658598824043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10000000</v>
       </c>
-      <c r="B9" s="6">
-        <v>0.01</v>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>48450425</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>64</v>
-      </c>
-      <c r="F9">
-        <v>31</v>
-      </c>
-      <c r="G9">
-        <v>39</v>
-      </c>
-      <c r="I9" s="7">
-        <f>($C9*$D9*NUMBERS!$C$2/1024/1024)/F9</f>
-        <v>4.9221900201612906E-2</v>
-      </c>
-      <c r="J9" s="7">
-        <f>($C9*$D9*NUMBERS!$C$2/1024/1024)/G9</f>
-        <v>3.9125100160256408E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10000000</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>60477530</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="2"/>
+        <v>32861681.399999999</v>
+      </c>
+      <c r="M9">
+        <f>$H9*NUMBERS!$C$2*thread!$I9/thread!J9*NUMBERS!$C$4</f>
+        <v>3.1538137103358888</v>
+      </c>
+      <c r="N9">
+        <f>$H9*NUMBERS!$C$2*thread!$I9/thread!K9*NUMBERS!$C$4</f>
+        <v>5.8041723720579315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10000000</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.01</v>
+      <c r="B10">
+        <v>8</v>
       </c>
       <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>48439472</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="D10">
+        <v>10000000</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>72738433.833333328</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="2"/>
+        <v>39395663.166666664</v>
+      </c>
+      <c r="M10">
+        <f>$H10*NUMBERS!$C$2*thread!$I10/thread!J10*NUMBERS!$C$4</f>
+        <v>3.1466423440177498</v>
+      </c>
+      <c r="N10">
+        <f>$H10*NUMBERS!$C$2*thread!$I10/thread!K10*NUMBERS!$C$4</f>
+        <v>5.8098231515787955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10000000</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="E10">
-        <v>128</v>
-      </c>
-      <c r="F10">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>39</v>
-      </c>
-      <c r="I10" s="7">
-        <f>($C10*$D10*NUMBERS!$C$2/1024/1024)/F10</f>
-        <v>4.6238754734848488E-2</v>
-      </c>
-      <c r="J10" s="7">
-        <f>($C10*$D10*NUMBERS!$C$2/1024/1024)/G10</f>
-        <v>3.9125100160256408E-2</v>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>48052956</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>83048089.714285716</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="2"/>
+        <v>47085690.142857142</v>
+      </c>
+      <c r="M11">
+        <f>$H11*NUMBERS!$C$2*thread!$I11/thread!J11*NUMBERS!$C$4</f>
+        <v>3.2153516054664455</v>
+      </c>
+      <c r="N11">
+        <f>$H11*NUMBERS!$C$2*thread!$I11/thread!K11*NUMBERS!$C$4</f>
+        <v>5.6711244495639619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10000000</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>57224947</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>10000000</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>96694374.125</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>53723707.625</v>
+      </c>
+      <c r="M12">
+        <f>$H12*NUMBERS!$C$2*thread!$I12/thread!J12*NUMBERS!$C$4</f>
+        <v>3.1560862150624112</v>
+      </c>
+      <c r="N12">
+        <f>$H12*NUMBERS!$C$2*thread!$I12/thread!K12*NUMBERS!$C$4</f>
+        <v>5.6804676136683527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10000000</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>60239006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10000000</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>59153690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10000000</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>63738768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10000000</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>62031239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10000000</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>69774532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10000000</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>69791439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10000000</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>69773208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10000000</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>72573063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>10000000</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>78410479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10000000</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>76107882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10000000</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>79110854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10000000</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>86455571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10000000</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>82501611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10000000</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>81289015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10000000</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>81000541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10000000</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>84574851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10000000</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>86404185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10000000</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>95776061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10000000</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>96509947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10000000</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>95977640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10000000</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>95992787</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10000000</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>98349130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10000000</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>97715594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>10000000</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>97130875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>10000000</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>96102959</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>10000000</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38">
+        <v>26187908</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>10000000</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39">
+        <v>26854161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>10000000</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40">
+        <v>26887958</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10000000</v>
+      </c>
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41">
+        <v>27150493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>10000000</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42">
+        <v>26893956</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>10000000</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43">
+        <v>26856954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>10000000</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44">
+        <v>27265796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>10000000</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45">
+        <v>27297628</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>10000000</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46">
+        <v>26876529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>10000000</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47">
+        <v>26919457</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>10000000</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48">
+        <v>34410624</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>10000000</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49">
+        <v>34443569</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>10000000</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50">
+        <v>31408481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>10000000</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51">
+        <v>31353116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>10000000</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52">
+        <v>32692617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>10000000</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53">
+        <v>42615335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>10000000</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54">
+        <v>40841108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>10000000</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55">
+        <v>36768770</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>10000000</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56">
+        <v>35413965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>10000000</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57">
+        <v>38043749</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10000000</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <v>42691052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>10000000</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>47124460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>10000000</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60">
+        <v>49277023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10000000</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61">
+        <v>46632297</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>10000000</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62">
+        <v>45199495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>10000000</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63">
+        <v>48502660</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>10000000</v>
+      </c>
+      <c r="B64">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64">
+        <v>45048140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>10000000</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65">
+        <v>47815756</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>10000000</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66">
+        <v>54549715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>10000000</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67">
+        <v>52525341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>10000000</v>
+      </c>
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68">
+        <v>50641882</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>10000000</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69">
+        <v>53650195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>10000000</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70">
+        <v>52939479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>10000000</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71">
+        <v>53017108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>10000000</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72">
+        <v>57883409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>10000000</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73">
+        <v>54582532</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/results/vm-results.xlsx
+++ b/tests/results/vm-results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="20180" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="20180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NUMBERS" sheetId="3" r:id="rId1"/>
@@ -559,28 +559,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.283075026892407</c:v>
+                  <c:v>0.272750546093145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.362403600651504</c:v>
+                  <c:v>0.354725091704294</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.409526191922477</c:v>
+                  <c:v>0.399676633913056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.413894602204329</c:v>
+                  <c:v>0.535724474603577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.444899430425951</c:v>
+                  <c:v>0.539497772251148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.435648901303029</c:v>
+                  <c:v>0.506676066214847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.152341593116038</c:v>
+                  <c:v>0.232460195576934</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.171523378796933</c:v>
+                  <c:v>0.17321739692286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,28 +670,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.850672355576037</c:v>
+                  <c:v>0.817434894795387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.037487483379165</c:v>
+                  <c:v>0.981897436270829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.051806915558913</c:v>
+                  <c:v>1.171880349024415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.970587686437515</c:v>
+                  <c:v>1.257293426477276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.003738948847663</c:v>
+                  <c:v>1.222400729122967</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.872427601237327</c:v>
+                  <c:v>0.887420063454305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.156105752989131</c:v>
+                  <c:v>0.245178233209064</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.169043944507417</c:v>
+                  <c:v>0.178032784649426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,28 +781,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.284431423854797</c:v>
+                  <c:v>0.271306006662183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.349390843046719</c:v>
+                  <c:v>0.32600305914484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.399374817898374</c:v>
+                  <c:v>0.425084692310328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.402640551670304</c:v>
+                  <c:v>0.50355943833737</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.424788958516393</c:v>
+                  <c:v>0.492810694779388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.344452470173038</c:v>
+                  <c:v>0.527523287216489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.340819797807574</c:v>
+                  <c:v>0.513645561437151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.355805949088367</c:v>
+                  <c:v>0.48868308564711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,28 +892,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.852033912887081</c:v>
+                  <c:v>0.809042445634184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.038176003337939</c:v>
+                  <c:v>0.96629676110757</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.080438674680863</c:v>
+                  <c:v>1.281051837309289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.049063821005334</c:v>
+                  <c:v>1.27478348932973</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.049175878625608</c:v>
+                  <c:v>1.262233899579848</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.046010985152338</c:v>
+                  <c:v>1.174435044408559</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.999762500707314</c:v>
+                  <c:v>1.194873313783339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.045313091138769</c:v>
+                  <c:v>1.191314771221277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,28 +1003,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.307168023906172</c:v>
+                  <c:v>0.292415494270463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60884012905642</c:v>
+                  <c:v>0.579981512648424</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.196535407124075</c:v>
+                  <c:v>1.402367544421127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.191741314715364</c:v>
+                  <c:v>2.689067186635368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.104777476510881</c:v>
+                  <c:v>3.948304739361191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.904092816938557</c:v>
+                  <c:v>4.56337816416914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.795932252469243</c:v>
+                  <c:v>4.598726440843054</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.184074917611348</c:v>
+                  <c:v>4.679683544791367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,28 +1114,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.374654057415405</c:v>
+                  <c:v>0.35759771534249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.717522907890303</c:v>
+                  <c:v>0.688261820495227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.397744200985185</c:v>
+                  <c:v>1.650554604668589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.947582865090537</c:v>
+                  <c:v>3.486015664212935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.648690076688352</c:v>
+                  <c:v>4.341011729030183</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.03077262650442</c:v>
+                  <c:v>4.818437329236431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.941210937269833</c:v>
+                  <c:v>4.732212285825153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.201387560876963</c:v>
+                  <c:v>4.725804539136027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9073,63 +9073,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Insert Bandwidth</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -9205,28 +9149,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.850672355576037</c:v>
+                  <c:v>0.817434894795387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.037487483379165</c:v>
+                  <c:v>0.981897436270829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.051806915558913</c:v>
+                  <c:v>1.171880349024415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.970587686437515</c:v>
+                  <c:v>1.257293426477276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.003738948847663</c:v>
+                  <c:v>1.222400729122967</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.872427601237327</c:v>
+                  <c:v>0.887420063454305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.156105752989131</c:v>
+                  <c:v>0.245178233209064</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.169043944507417</c:v>
+                  <c:v>0.178032784649426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9308,28 +9252,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.374654057415405</c:v>
+                  <c:v>0.35759771534249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.717522907890303</c:v>
+                  <c:v>0.688261820495227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.397744200985185</c:v>
+                  <c:v>1.650554604668589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.947582865090537</c:v>
+                  <c:v>3.486015664212935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.648690076688352</c:v>
+                  <c:v>4.341011729030183</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.03077262650442</c:v>
+                  <c:v>4.818437329236431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.941210937269833</c:v>
+                  <c:v>4.732212285825153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.201387560876963</c:v>
+                  <c:v>4.725804539136027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -33400,10 +33344,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView topLeftCell="F33" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33416,14 +33360,15 @@
     <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
@@ -33435,7 +33380,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -33461,215 +33406,215 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>13475923</v>
+        <v>139860298</v>
       </c>
       <c r="D5">
-        <v>4484332</v>
+        <v>46666680</v>
       </c>
       <c r="E5">
-        <v>13411659</v>
+        <v>140604969</v>
       </c>
       <c r="F5">
-        <v>4477166</v>
+        <v>47150768</v>
       </c>
       <c r="G5">
-        <v>12418927</v>
+        <v>130454690</v>
       </c>
       <c r="H5">
-        <v>10181919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>106675661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>21052204</v>
+        <v>215079077</v>
       </c>
       <c r="D6">
-        <v>7353722</v>
+        <v>77700524</v>
       </c>
       <c r="E6">
-        <v>21836275</v>
+        <v>234028311</v>
       </c>
       <c r="F6">
-        <v>7348845</v>
+        <v>78954984</v>
       </c>
       <c r="G6">
-        <v>12531031</v>
+        <v>131545478</v>
       </c>
       <c r="H6">
-        <v>10632963</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110850178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>37259617</v>
+        <v>381778362</v>
       </c>
       <c r="D7">
-        <v>14507215</v>
+        <v>130207739</v>
       </c>
       <c r="E7">
-        <v>38206688</v>
+        <v>358958799</v>
       </c>
       <c r="F7">
-        <v>14122772</v>
+        <v>119111410</v>
       </c>
       <c r="G7">
-        <v>12752476</v>
+        <v>108807346</v>
       </c>
       <c r="H7">
-        <v>10916725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92446436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>73732728</v>
+        <v>569650624</v>
       </c>
       <c r="D8">
-        <v>31442371</v>
+        <v>242724391</v>
       </c>
       <c r="E8">
-        <v>75793603</v>
+        <v>606037258</v>
       </c>
       <c r="F8">
-        <v>29090297</v>
+        <v>239394206</v>
       </c>
       <c r="G8">
-        <v>13923896</v>
+        <v>113487600</v>
       </c>
       <c r="H8">
-        <v>10353425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87542860</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="B9">
         <v>16</v>
       </c>
       <c r="C9">
-        <v>137188659</v>
+        <v>1131332869</v>
       </c>
       <c r="D9">
-        <v>60807799</v>
+        <v>499305627</v>
       </c>
       <c r="E9">
-        <v>143683481</v>
+        <v>1238511195</v>
       </c>
       <c r="F9">
-        <v>58174380</v>
+        <v>483548701</v>
       </c>
       <c r="G9">
-        <v>19658464</v>
+        <v>154585728</v>
       </c>
       <c r="H9">
-        <v>16727964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140601224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="B10">
         <v>32</v>
       </c>
       <c r="C10">
-        <v>280203421</v>
+        <v>2409237788</v>
       </c>
       <c r="D10">
-        <v>139920278</v>
+        <v>1375564037</v>
       </c>
       <c r="E10">
-        <v>354389424</v>
+        <v>2314026991</v>
       </c>
       <c r="F10">
-        <v>116700794</v>
+        <v>1039396032</v>
       </c>
       <c r="G10">
-        <v>31267267</v>
+        <v>267499883</v>
       </c>
       <c r="H10">
-        <v>30284594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253340044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="B11">
         <v>64</v>
       </c>
       <c r="C11">
-        <v>1602586792</v>
+        <v>10502470085</v>
       </c>
       <c r="D11">
-        <v>1563943803</v>
+        <v>9957679432</v>
       </c>
       <c r="E11">
-        <v>716333460</v>
+        <v>4753095195</v>
       </c>
       <c r="F11">
-        <v>244198622</v>
+        <v>2043234393</v>
       </c>
       <c r="G11">
-        <v>64316381</v>
+        <v>530887471</v>
       </c>
       <c r="H11">
-        <v>61945587</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>515912242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="B12">
         <v>128</v>
       </c>
       <c r="C12">
-        <v>2846732926</v>
+        <v>28188926671</v>
       </c>
       <c r="D12">
-        <v>2888487082</v>
+        <v>27426479396</v>
       </c>
       <c r="E12">
-        <v>1372324581</v>
+        <v>9991777173</v>
       </c>
       <c r="F12">
-        <v>467114833</v>
+        <v>4098675361</v>
       </c>
       <c r="G12">
-        <v>116699930</v>
+        <v>1043406558</v>
       </c>
       <c r="H12">
-        <v>116219045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1033223541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="10" t="s">
@@ -33681,7 +33626,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f>A4</f>
         <v>rows</v>
@@ -33715,279 +33660,279 @@
         <v>row store (inlined row insert)</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" ref="A16:B23" si="1">A5</f>
-        <v>1000000</v>
+        <f>A5</f>
+        <v>10000000</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f>B5</f>
         <v>1</v>
       </c>
       <c r="C16" s="4">
         <f>C5*NUMBERS!$C$3</f>
-        <v>13.475923</v>
+        <v>139.860298</v>
       </c>
       <c r="D16" s="4">
         <f>D5*NUMBERS!$C$3</f>
-        <v>4.4843320000000002</v>
+        <v>46.666679999999999</v>
       </c>
       <c r="E16" s="4">
         <f>E5*NUMBERS!$C$3</f>
-        <v>13.411659</v>
+        <v>140.60496899999998</v>
       </c>
       <c r="F16" s="4">
         <f>F5*NUMBERS!$C$3</f>
-        <v>4.4771659999999995</v>
+        <v>47.150767999999999</v>
       </c>
       <c r="G16" s="4">
         <f>G5*NUMBERS!$C$3</f>
-        <v>12.418927</v>
+        <v>130.45469</v>
       </c>
       <c r="H16" s="4">
         <f>H5*NUMBERS!$C$3</f>
-        <v>10.181918999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>106.67566099999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
+        <f>A6</f>
+        <v>10000000</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f>B6</f>
         <v>2</v>
       </c>
       <c r="C17" s="4">
         <f>C6*NUMBERS!$C$3</f>
-        <v>21.052204</v>
+        <v>215.07907699999998</v>
       </c>
       <c r="D17" s="4">
         <f>D6*NUMBERS!$C$3</f>
-        <v>7.3537219999999994</v>
+        <v>77.700524000000001</v>
       </c>
       <c r="E17" s="4">
         <f>E6*NUMBERS!$C$3</f>
-        <v>21.836275000000001</v>
+        <v>234.028311</v>
       </c>
       <c r="F17" s="4">
         <f>F6*NUMBERS!$C$3</f>
-        <v>7.3488449999999998</v>
+        <v>78.954983999999996</v>
       </c>
       <c r="G17" s="4">
         <f>G6*NUMBERS!$C$3</f>
-        <v>12.531030999999999</v>
+        <v>131.545478</v>
       </c>
       <c r="H17" s="4">
         <f>H6*NUMBERS!$C$3</f>
-        <v>10.632963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110.850178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
+        <f>A7</f>
+        <v>10000000</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f>B7</f>
         <v>4</v>
       </c>
       <c r="C18" s="4">
         <f>C7*NUMBERS!$C$3</f>
-        <v>37.259616999999999</v>
+        <v>381.77836199999996</v>
       </c>
       <c r="D18" s="4">
         <f>D7*NUMBERS!$C$3</f>
-        <v>14.507214999999999</v>
+        <v>130.207739</v>
       </c>
       <c r="E18" s="4">
         <f>E7*NUMBERS!$C$3</f>
-        <v>38.206688</v>
+        <v>358.958799</v>
       </c>
       <c r="F18" s="4">
         <f>F7*NUMBERS!$C$3</f>
-        <v>14.122771999999999</v>
+        <v>119.11140999999999</v>
       </c>
       <c r="G18" s="4">
         <f>G7*NUMBERS!$C$3</f>
-        <v>12.752476</v>
+        <v>108.807346</v>
       </c>
       <c r="H18" s="4">
         <f>H7*NUMBERS!$C$3</f>
-        <v>10.916725</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92.446435999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
+        <f>A8</f>
+        <v>10000000</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f>B8</f>
         <v>8</v>
       </c>
       <c r="C19" s="4">
         <f>C8*NUMBERS!$C$3</f>
-        <v>73.732727999999994</v>
+        <v>569.65062399999999</v>
       </c>
       <c r="D19" s="4">
         <f>D8*NUMBERS!$C$3</f>
-        <v>31.442370999999998</v>
+        <v>242.724391</v>
       </c>
       <c r="E19" s="4">
         <f>E8*NUMBERS!$C$3</f>
-        <v>75.79360299999999</v>
+        <v>606.03725799999995</v>
       </c>
       <c r="F19" s="4">
         <f>F8*NUMBERS!$C$3</f>
-        <v>29.090297</v>
+        <v>239.394206</v>
       </c>
       <c r="G19" s="4">
         <f>G8*NUMBERS!$C$3</f>
-        <v>13.923895999999999</v>
+        <v>113.4876</v>
       </c>
       <c r="H19" s="4">
         <f>H8*NUMBERS!$C$3</f>
-        <v>10.353425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87.54285999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
+        <f>A9</f>
+        <v>10000000</v>
       </c>
       <c r="B20">
-        <f t="shared" si="1"/>
+        <f>B9</f>
         <v>16</v>
       </c>
       <c r="C20" s="4">
         <f>C9*NUMBERS!$C$3</f>
-        <v>137.188659</v>
+        <v>1131.3328689999998</v>
       </c>
       <c r="D20" s="4">
         <f>D9*NUMBERS!$C$3</f>
-        <v>60.807798999999996</v>
+        <v>499.30562699999996</v>
       </c>
       <c r="E20" s="4">
         <f>E9*NUMBERS!$C$3</f>
-        <v>143.683481</v>
+        <v>1238.511195</v>
       </c>
       <c r="F20" s="4">
         <f>F9*NUMBERS!$C$3</f>
-        <v>58.174379999999999</v>
+        <v>483.54870099999999</v>
       </c>
       <c r="G20" s="4">
         <f>G9*NUMBERS!$C$3</f>
-        <v>19.658463999999999</v>
+        <v>154.58572799999999</v>
       </c>
       <c r="H20" s="4">
         <f>H9*NUMBERS!$C$3</f>
-        <v>16.727964</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140.601224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
+        <f>A10</f>
+        <v>10000000</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
+        <f>B10</f>
         <v>32</v>
       </c>
       <c r="C21" s="4">
         <f>C10*NUMBERS!$C$3</f>
-        <v>280.20342099999999</v>
+        <v>2409.2377879999999</v>
       </c>
       <c r="D21" s="4">
         <f>D10*NUMBERS!$C$3</f>
-        <v>139.920278</v>
+        <v>1375.5640369999999</v>
       </c>
       <c r="E21" s="4">
         <f>E10*NUMBERS!$C$3</f>
-        <v>354.38942399999996</v>
+        <v>2314.0269909999997</v>
       </c>
       <c r="F21" s="4">
         <f>F10*NUMBERS!$C$3</f>
-        <v>116.70079399999999</v>
+        <v>1039.3960319999999</v>
       </c>
       <c r="G21" s="4">
         <f>G10*NUMBERS!$C$3</f>
-        <v>31.267266999999997</v>
+        <v>267.49988300000001</v>
       </c>
       <c r="H21" s="4">
         <f>H10*NUMBERS!$C$3</f>
-        <v>30.284593999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>253.34004399999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
+        <f>A11</f>
+        <v>10000000</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
+        <f>B11</f>
         <v>64</v>
       </c>
       <c r="C22" s="4">
         <f>C11*NUMBERS!$C$3</f>
-        <v>1602.5867919999998</v>
+        <v>10502.470084999999</v>
       </c>
       <c r="D22" s="4">
         <f>D11*NUMBERS!$C$3</f>
-        <v>1563.9438029999999</v>
+        <v>9957.679431999999</v>
       </c>
       <c r="E22" s="4">
         <f>E11*NUMBERS!$C$3</f>
-        <v>716.33345999999995</v>
+        <v>4753.0951949999999</v>
       </c>
       <c r="F22" s="4">
         <f>F11*NUMBERS!$C$3</f>
-        <v>244.198622</v>
+        <v>2043.234393</v>
       </c>
       <c r="G22" s="4">
         <f>G11*NUMBERS!$C$3</f>
-        <v>64.316380999999993</v>
+        <v>530.88747100000001</v>
       </c>
       <c r="H22" s="4">
         <f>H11*NUMBERS!$C$3</f>
-        <v>61.945586999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>515.91224199999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="1"/>
-        <v>1000000</v>
+        <f>A12</f>
+        <v>10000000</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f>B12</f>
         <v>128</v>
       </c>
       <c r="C23" s="4">
         <f>C12*NUMBERS!$C$3</f>
-        <v>2846.7329259999997</v>
+        <v>28188.926670999997</v>
       </c>
       <c r="D23" s="4">
         <f>D12*NUMBERS!$C$3</f>
-        <v>2888.4870819999996</v>
+        <v>27426.479395999999</v>
       </c>
       <c r="E23" s="4">
         <f>E12*NUMBERS!$C$3</f>
-        <v>1372.3245809999999</v>
+        <v>9991.7771730000004</v>
       </c>
       <c r="F23" s="4">
         <f>F12*NUMBERS!$C$3</f>
-        <v>467.11483299999998</v>
+        <v>4098.6753609999996</v>
       </c>
       <c r="G23" s="4">
         <f>G12*NUMBERS!$C$3</f>
-        <v>116.69992999999999</v>
+        <v>1043.4065579999999</v>
       </c>
       <c r="H23" s="4">
         <f>H12*NUMBERS!$C$3</f>
-        <v>116.21904499999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1033.2235409999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="10" t="s">
@@ -33999,310 +33944,522 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f>A4</f>
         <v>rows</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" ref="B26:H26" si="2">B4</f>
+        <f t="shared" ref="B26:H26" si="1">B4</f>
         <v>columns</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>col store (by field)</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>col store (inlined)</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>row store (by field)</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>row store (inlined)</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>row store (row insert)</v>
       </c>
       <c r="H26" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>row store (inlined row insert)</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" ref="A27:B27" si="3">A5</f>
-        <v>1000000</v>
+        <f>A5</f>
+        <v>10000000</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f>B5</f>
         <v>1</v>
       </c>
       <c r="C27" s="2">
         <f>$A27*$B27*NUMBERS!$C$2/C5*NUMBERS!$C$4</f>
-        <v>0.28307502689240654</v>
+        <v>0.27275054609314503</v>
       </c>
       <c r="D27" s="2">
         <f>$A27*$B27*NUMBERS!$C$2/D5*NUMBERS!$C$4</f>
-        <v>0.85067235557603682</v>
+        <v>0.81743489479538722</v>
       </c>
       <c r="E27" s="2">
         <f>$A27*$B27*NUMBERS!$C$2/E5*NUMBERS!$C$4</f>
-        <v>0.28443142385479681</v>
+        <v>0.27130600666218274</v>
       </c>
       <c r="F27" s="2">
         <f>$A27*$B27*NUMBERS!$C$2/F5*NUMBERS!$C$4</f>
-        <v>0.85203391288708086</v>
+        <v>0.80904244563418359</v>
       </c>
       <c r="G27" s="2">
         <f>$A27*$B27*NUMBERS!$C$2/G5*NUMBERS!$C$4</f>
-        <v>0.30716802390617159</v>
+        <v>0.29241549427046276</v>
       </c>
       <c r="H27" s="2">
         <f>$A27*$B27*NUMBERS!$C$2/H5*NUMBERS!$C$4</f>
-        <v>0.3746540574154047</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.35759771534249035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" ref="A28:B28" si="4">A6</f>
-        <v>1000000</v>
+        <f>A6</f>
+        <v>10000000</v>
       </c>
       <c r="B28">
-        <f t="shared" si="4"/>
+        <f>B6</f>
         <v>2</v>
       </c>
       <c r="C28" s="2">
         <f>$A28*$B28*NUMBERS!$C$2/C6*NUMBERS!$C$4</f>
-        <v>0.36240360065150423</v>
+        <v>0.35472509170429445</v>
       </c>
       <c r="D28" s="2">
         <f>$A28*$B28*NUMBERS!$C$2/D6*NUMBERS!$C$4</f>
-        <v>1.037487483379165</v>
+        <v>0.98189743627082871</v>
       </c>
       <c r="E28" s="2">
         <f>$A28*$B28*NUMBERS!$C$2/E6*NUMBERS!$C$4</f>
-        <v>0.3493908430467193</v>
+        <v>0.32600305914483996</v>
       </c>
       <c r="F28" s="2">
         <f>$A28*$B28*NUMBERS!$C$2/F6*NUMBERS!$C$4</f>
-        <v>1.0381760033379395</v>
+        <v>0.96629676110756979</v>
       </c>
       <c r="G28" s="2">
         <f>$A28*$B28*NUMBERS!$C$2/G6*NUMBERS!$C$4</f>
-        <v>0.60884012905642004</v>
+        <v>0.57998151264842412</v>
       </c>
       <c r="H28" s="2">
         <f>$A28*$B28*NUMBERS!$C$2/H6*NUMBERS!$C$4</f>
-        <v>0.71752290789030293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.68826182049522733</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" ref="A29:B29" si="5">A7</f>
-        <v>1000000</v>
+        <f>A7</f>
+        <v>10000000</v>
       </c>
       <c r="B29">
-        <f t="shared" si="5"/>
+        <f>B7</f>
         <v>4</v>
       </c>
       <c r="C29" s="2">
         <f>$A29*$B29*NUMBERS!$C$2/C7*NUMBERS!$C$4</f>
-        <v>0.40952619192247736</v>
+        <v>0.39967663391305558</v>
       </c>
       <c r="D29" s="2">
         <f>$A29*$B29*NUMBERS!$C$2/D7*NUMBERS!$C$4</f>
-        <v>1.0518069155589131</v>
+        <v>1.1718803490244154</v>
       </c>
       <c r="E29" s="2">
         <f>$A29*$B29*NUMBERS!$C$2/E7*NUMBERS!$C$4</f>
-        <v>0.3993748178983742</v>
+        <v>0.4250846923103283</v>
       </c>
       <c r="F29" s="2">
         <f>$A29*$B29*NUMBERS!$C$2/F7*NUMBERS!$C$4</f>
-        <v>1.0804386746808627</v>
+        <v>1.2810518373092887</v>
       </c>
       <c r="G29" s="2">
         <f>$A29*$B29*NUMBERS!$C$2/G7*NUMBERS!$C$4</f>
-        <v>1.1965354071240755</v>
+        <v>1.4023675444211274</v>
       </c>
       <c r="H29" s="2">
         <f>$A29*$B29*NUMBERS!$C$2/H7*NUMBERS!$C$4</f>
-        <v>1.3977442009851855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.6505546046685888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" ref="A30:B30" si="6">A8</f>
-        <v>1000000</v>
+        <f>A8</f>
+        <v>10000000</v>
       </c>
       <c r="B30">
-        <f t="shared" si="6"/>
+        <f>B8</f>
         <v>8</v>
       </c>
       <c r="C30" s="2">
         <f>$A30*$B30*NUMBERS!$C$2/C8*NUMBERS!$C$4</f>
-        <v>0.41389460220432917</v>
+        <v>0.53572447460357731</v>
       </c>
       <c r="D30" s="2">
         <f>$A30*$B30*NUMBERS!$C$2/D8*NUMBERS!$C$4</f>
-        <v>0.97058768643751459</v>
+        <v>1.2572934264772757</v>
       </c>
       <c r="E30" s="2">
         <f>$A30*$B30*NUMBERS!$C$2/E8*NUMBERS!$C$4</f>
-        <v>0.40264055167030394</v>
+        <v>0.50355943833737038</v>
       </c>
       <c r="F30" s="2">
         <f>$A30*$B30*NUMBERS!$C$2/F8*NUMBERS!$C$4</f>
-        <v>1.0490638210053338</v>
+        <v>1.2747834893297292</v>
       </c>
       <c r="G30" s="2">
         <f>$A30*$B30*NUMBERS!$C$2/G8*NUMBERS!$C$4</f>
-        <v>2.1917413147153639</v>
+        <v>2.6890671866353681</v>
       </c>
       <c r="H30" s="2">
         <f>$A30*$B30*NUMBERS!$C$2/H8*NUMBERS!$C$4</f>
-        <v>2.9475828650905376</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.4860156642129354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" ref="A31:B31" si="7">A9</f>
-        <v>1000000</v>
+        <f>A9</f>
+        <v>10000000</v>
       </c>
       <c r="B31">
-        <f t="shared" si="7"/>
+        <f>B9</f>
         <v>16</v>
       </c>
       <c r="C31" s="2">
         <f>$A31*$B31*NUMBERS!$C$2/C9*NUMBERS!$C$4</f>
-        <v>0.44489943042595087</v>
+        <v>0.53949777225114814</v>
       </c>
       <c r="D31" s="2">
         <f>$A31*$B31*NUMBERS!$C$2/D9*NUMBERS!$C$4</f>
-        <v>1.0037389488476633</v>
+        <v>1.2224007291229666</v>
       </c>
       <c r="E31" s="2">
         <f>$A31*$B31*NUMBERS!$C$2/E9*NUMBERS!$C$4</f>
-        <v>0.42478895851639337</v>
+        <v>0.49281069477938794</v>
       </c>
       <c r="F31" s="2">
         <f>$A31*$B31*NUMBERS!$C$2/F9*NUMBERS!$C$4</f>
-        <v>1.049175878625608</v>
+        <v>1.2622338995798481</v>
       </c>
       <c r="G31" s="2">
         <f>$A31*$B31*NUMBERS!$C$2/G9*NUMBERS!$C$4</f>
-        <v>3.1047774765108809</v>
+        <v>3.9483047393611912</v>
       </c>
       <c r="H31" s="2">
         <f>$A31*$B31*NUMBERS!$C$2/H9*NUMBERS!$C$4</f>
-        <v>3.6486900766883528</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.3410117290301828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" ref="A32:B32" si="8">A10</f>
-        <v>1000000</v>
+        <f>A10</f>
+        <v>10000000</v>
       </c>
       <c r="B32">
-        <f t="shared" si="8"/>
+        <f>B10</f>
         <v>32</v>
       </c>
       <c r="C32" s="2">
         <f>$A32*$B32*NUMBERS!$C$2/C10*NUMBERS!$C$4</f>
-        <v>0.43564890130302869</v>
+        <v>0.50667606621484718</v>
       </c>
       <c r="D32" s="2">
         <f>$A32*$B32*NUMBERS!$C$2/D10*NUMBERS!$C$4</f>
-        <v>0.87242760123732743</v>
+        <v>0.88742006345430502</v>
       </c>
       <c r="E32" s="2">
         <f>$A32*$B32*NUMBERS!$C$2/E10*NUMBERS!$C$4</f>
-        <v>0.34445247017303765</v>
+        <v>0.52752328721648856</v>
       </c>
       <c r="F32" s="2">
         <f>$A32*$B32*NUMBERS!$C$2/F10*NUMBERS!$C$4</f>
-        <v>1.0460109851523376</v>
+        <v>1.1744350444085589</v>
       </c>
       <c r="G32" s="2">
         <f>$A32*$B32*NUMBERS!$C$2/G10*NUMBERS!$C$4</f>
-        <v>3.9040928169385571</v>
+        <v>4.5633781641691407</v>
       </c>
       <c r="H32" s="2">
         <f>$A32*$B32*NUMBERS!$C$2/H10*NUMBERS!$C$4</f>
-        <v>4.0307726265044197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.8184373292364313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>A11</f>
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33" si="9">B11</f>
+        <f>B11</f>
         <v>64</v>
       </c>
       <c r="C33" s="2">
         <f>$A33*$B33*NUMBERS!$C$2/C11*NUMBERS!$C$4</f>
-        <v>0.15234159311603762</v>
+        <v>0.23246019557693412</v>
       </c>
       <c r="D33" s="2">
         <f>$A33*$B33*NUMBERS!$C$2/D11*NUMBERS!$C$4</f>
-        <v>0.1561057529891309</v>
+        <v>0.24517823320906443</v>
       </c>
       <c r="E33" s="2">
         <f>$A33*$B33*NUMBERS!$C$2/E11*NUMBERS!$C$4</f>
-        <v>0.34081979780757415</v>
+        <v>0.51364556143715112</v>
       </c>
       <c r="F33" s="2">
         <f>$A33*$B33*NUMBERS!$C$2/F11*NUMBERS!$C$4</f>
-        <v>0.99976250070731365</v>
+        <v>1.1948733137833394</v>
       </c>
       <c r="G33" s="2">
         <f>$A33*$B33*NUMBERS!$C$2/G11*NUMBERS!$C$4</f>
-        <v>3.7959322524692429</v>
+        <v>4.5987264408430546</v>
       </c>
       <c r="H33" s="2">
         <f>$A33*$B33*NUMBERS!$C$2/H11*NUMBERS!$C$4</f>
-        <v>3.9412109372698332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.7322122858251534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" ref="A34:B34" si="10">A12</f>
-        <v>1000000</v>
+        <f>A12</f>
+        <v>10000000</v>
       </c>
       <c r="B34">
-        <f t="shared" si="10"/>
+        <f>B12</f>
         <v>128</v>
       </c>
       <c r="C34" s="2">
         <f>$A34*$B34*NUMBERS!$C$2/C12*NUMBERS!$C$4</f>
-        <v>0.17152337879693319</v>
+        <v>0.17321739692285992</v>
       </c>
       <c r="D34" s="2">
         <f>$A34*$B34*NUMBERS!$C$2/D12*NUMBERS!$C$4</f>
-        <v>0.16904394450741739</v>
+        <v>0.17803278464942646</v>
       </c>
       <c r="E34" s="2">
         <f>$A34*$B34*NUMBERS!$C$2/E12*NUMBERS!$C$4</f>
-        <v>0.3558059490883666</v>
+        <v>0.48868308564711022</v>
       </c>
       <c r="F34" s="2">
         <f>$A34*$B34*NUMBERS!$C$2/F12*NUMBERS!$C$4</f>
-        <v>1.0453130911387694</v>
+        <v>1.191314771221277</v>
       </c>
       <c r="G34" s="2">
         <f>$A34*$B34*NUMBERS!$C$2/G12*NUMBERS!$C$4</f>
-        <v>4.1840749176113476</v>
+        <v>4.6796835447913674</v>
       </c>
       <c r="H34" s="2">
         <f>$A34*$B34*NUMBERS!$C$2/H12*NUMBERS!$C$4</f>
-        <v>4.2013875608769631</v>
+        <v>4.7258045391360275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="4"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>10000000</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>139860298</v>
+      </c>
+      <c r="D90">
+        <v>46666680</v>
+      </c>
+      <c r="E90">
+        <v>140604969</v>
+      </c>
+      <c r="F90">
+        <v>47150768</v>
+      </c>
+      <c r="G90">
+        <v>130454690</v>
+      </c>
+      <c r="H90">
+        <v>106675661</v>
+      </c>
+      <c r="R90" s="1"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>10000000</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>215079077</v>
+      </c>
+      <c r="D91">
+        <v>77700524</v>
+      </c>
+      <c r="E91">
+        <v>234028311</v>
+      </c>
+      <c r="F91">
+        <v>78954984</v>
+      </c>
+      <c r="G91">
+        <v>131545478</v>
+      </c>
+      <c r="H91">
+        <v>110850178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>10000000</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>381778362</v>
+      </c>
+      <c r="D92">
+        <v>130207739</v>
+      </c>
+      <c r="E92">
+        <v>358958799</v>
+      </c>
+      <c r="F92">
+        <v>119111410</v>
+      </c>
+      <c r="G92">
+        <v>108807346</v>
+      </c>
+      <c r="H92">
+        <v>92446436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>10000000</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>569650624</v>
+      </c>
+      <c r="D93">
+        <v>242724391</v>
+      </c>
+      <c r="E93">
+        <v>606037258</v>
+      </c>
+      <c r="F93">
+        <v>239394206</v>
+      </c>
+      <c r="G93">
+        <v>113487600</v>
+      </c>
+      <c r="H93">
+        <v>87542860</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>10000000</v>
+      </c>
+      <c r="B94">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>1131332869</v>
+      </c>
+      <c r="D94">
+        <v>499305627</v>
+      </c>
+      <c r="E94">
+        <v>1238511195</v>
+      </c>
+      <c r="F94">
+        <v>483548701</v>
+      </c>
+      <c r="G94">
+        <v>154585728</v>
+      </c>
+      <c r="H94">
+        <v>140601224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>10000000</v>
+      </c>
+      <c r="B95">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>2409237788</v>
+      </c>
+      <c r="D95">
+        <v>1375564037</v>
+      </c>
+      <c r="E95">
+        <v>2314026991</v>
+      </c>
+      <c r="F95">
+        <v>1039396032</v>
+      </c>
+      <c r="G95">
+        <v>267499883</v>
+      </c>
+      <c r="H95">
+        <v>253340044</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>10000000</v>
+      </c>
+      <c r="B96">
+        <v>64</v>
+      </c>
+      <c r="C96">
+        <v>10502470085</v>
+      </c>
+      <c r="D96">
+        <v>9957679432</v>
+      </c>
+      <c r="E96">
+        <v>4753095195</v>
+      </c>
+      <c r="F96">
+        <v>2043234393</v>
+      </c>
+      <c r="G96">
+        <v>530887471</v>
+      </c>
+      <c r="H96">
+        <v>515912242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>10000000</v>
+      </c>
+      <c r="B97">
+        <v>128</v>
+      </c>
+      <c r="C97">
+        <v>28188926671</v>
+      </c>
+      <c r="D97">
+        <v>27426479396</v>
+      </c>
+      <c r="E97">
+        <v>9991777173</v>
+      </c>
+      <c r="F97">
+        <v>4098675361</v>
+      </c>
+      <c r="G97">
+        <v>1043406558</v>
+      </c>
+      <c r="H97">
+        <v>1033223541</v>
       </c>
     </row>
   </sheetData>
@@ -36548,7 +36705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="81" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
       <selection activeCell="BB12" sqref="BB12"/>
     </sheetView>
   </sheetViews>
@@ -45186,7 +45343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>

--- a/tests/results/vm-results.xlsx
+++ b/tests/results/vm-results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxklenk/dev/hpi/epic-battle-db/tests/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiaswollowski/Git/epic-battle-db/tests/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="20180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="NUMBERS" sheetId="3" r:id="rId1"/>
@@ -375,8 +375,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -471,7 +471,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1157,11 +1157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131616880"/>
-        <c:axId val="2131620112"/>
+        <c:axId val="-1762776656"/>
+        <c:axId val="-1676525984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131616880"/>
+        <c:axId val="-1762776656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,10 +1201,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131620112"/>
+        <c:crossAx val="-1676525984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1212,7 +1212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131620112"/>
+        <c:axId val="-1676525984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1284,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1316,10 +1316,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131616880"/>
+        <c:crossAx val="-1762776656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1358,7 +1358,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1396,7 +1396,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1447,7 +1447,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1473,7 +1472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1634,11 +1633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132154736"/>
-        <c:axId val="2132160272"/>
+        <c:axId val="-1676391216"/>
+        <c:axId val="-1676387456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132154736"/>
+        <c:axId val="-1676391216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1669,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1696,7 +1694,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1734,10 +1732,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132160272"/>
+        <c:crossAx val="-1676387456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1745,7 +1743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132160272"/>
+        <c:axId val="-1676387456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,7 +1789,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1817,7 +1814,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1849,10 +1846,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132154736"/>
+        <c:crossAx val="-1676391216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1866,7 +1863,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1892,7 +1888,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1917,7 +1913,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1994,7 +1990,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3010,11 +3006,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106704976"/>
-        <c:axId val="2113684992"/>
+        <c:axId val="-1727234640"/>
+        <c:axId val="-1727232160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106704976"/>
+        <c:axId val="-1727234640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,10 +3050,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113684992"/>
+        <c:crossAx val="-1727232160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3065,7 +3061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113684992"/>
+        <c:axId val="-1727232160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,7 +3133,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3169,10 +3165,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106704976"/>
+        <c:crossAx val="-1727234640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3211,7 +3207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3249,7 +3245,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3675,11 +3671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106623104"/>
-        <c:axId val="2113639856"/>
+        <c:axId val="-1727193264"/>
+        <c:axId val="-1727190272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106623104"/>
+        <c:axId val="-1727193264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3719,10 +3715,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113639856"/>
+        <c:crossAx val="-1727190272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3730,7 +3726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113639856"/>
+        <c:axId val="-1727190272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3814,10 +3810,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106623104"/>
+        <c:crossAx val="-1727193264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3856,7 +3852,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3872,7 +3868,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3949,7 +3945,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4165,11 +4161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113666528"/>
-        <c:axId val="2113669536"/>
+        <c:axId val="-1676336384"/>
+        <c:axId val="-1676333904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113666528"/>
+        <c:axId val="-1676336384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4209,10 +4205,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113669536"/>
+        <c:crossAx val="-1676333904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4220,7 +4216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113669536"/>
+        <c:axId val="-1676333904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4267,7 +4263,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4299,10 +4295,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113666528"/>
+        <c:crossAx val="-1676336384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4341,7 +4337,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4379,7 +4375,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4430,6 +4426,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4455,7 +4452,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4713,11 +4710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132256400"/>
-        <c:axId val="2132261952"/>
+        <c:axId val="-1727148816"/>
+        <c:axId val="-1727145056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132256400"/>
+        <c:axId val="-1727148816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4749,6 +4746,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4774,7 +4772,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4812,10 +4810,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132261952"/>
+        <c:crossAx val="-1727145056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4823,7 +4821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132261952"/>
+        <c:axId val="-1727145056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150.0"/>
@@ -4870,6 +4868,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4895,7 +4894,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4927,10 +4926,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132256400"/>
+        <c:crossAx val="-1727148816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4944,6 +4943,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4969,7 +4969,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4999,7 +4999,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5031,10 +5031,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0623935104275058"/>
+          <c:x val="0.0921809951081094"/>
           <c:y val="0.0702745033699578"/>
-          <c:w val="0.925131308646479"/>
-          <c:h val="0.750403561910054"/>
+          <c:w val="0.895343836593181"/>
+          <c:h val="0.68697315754118"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5570,11 +5570,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132303312"/>
-        <c:axId val="2132308832"/>
+        <c:axId val="-1727126688"/>
+        <c:axId val="-1727122928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132303312"/>
+        <c:axId val="-1727126688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5587,7 +5587,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5600,13 +5600,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Selectivity / # Columns</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.440790389571714"/>
+              <c:y val="0.912134214191439"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5620,7 +5627,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5632,7 +5639,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5658,7 +5665,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5670,10 +5677,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132308832"/>
+        <c:crossAx val="-1727122928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5681,7 +5688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132308832"/>
+        <c:axId val="-1727122928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5708,7 +5715,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5721,13 +5728,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>MB/ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00768708364152284"/>
+              <c:y val="0.442118346020985"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5741,7 +5755,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5753,7 +5767,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5773,7 +5787,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5785,10 +5799,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132303312"/>
+        <c:crossAx val="-1727126688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5802,7 +5816,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.616296874564953"/>
+          <c:y val="0.908906440498489"/>
+          <c:w val="0.255535986446521"/>
+          <c:h val="0.0416328302350344"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5816,7 +5839,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5828,7 +5851,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5851,9 +5874,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6424,11 +6447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132344352"/>
-        <c:axId val="2132349904"/>
+        <c:axId val="-1675566016"/>
+        <c:axId val="-1675563536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132344352"/>
+        <c:axId val="-1675566016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6441,7 +6464,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6454,7 +6477,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Selectivity / # Columns</a:t>
                 </a:r>
               </a:p>
@@ -6474,7 +6497,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6486,7 +6509,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6512,7 +6535,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6524,10 +6547,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132349904"/>
+        <c:crossAx val="-1675563536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6535,7 +6558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132349904"/>
+        <c:axId val="-1675563536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6562,7 +6585,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6575,7 +6598,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>MB/ms</a:t>
                 </a:r>
               </a:p>
@@ -6595,7 +6618,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6607,7 +6630,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6627,7 +6650,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6639,10 +6662,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132344352"/>
+        <c:crossAx val="-1675566016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6656,7 +6679,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.384582687625855"/>
+          <c:y val="0.961751306476871"/>
+          <c:w val="0.230834624748289"/>
+          <c:h val="0.0382486935231294"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6670,7 +6702,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6682,7 +6714,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6705,9 +6737,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1600"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6758,6 +6790,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6783,7 +6816,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7247,11 +7280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132380320"/>
-        <c:axId val="2132383472"/>
+        <c:axId val="-1675551776"/>
+        <c:axId val="-1675549200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132380320"/>
+        <c:axId val="-1675551776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7291,10 +7324,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132383472"/>
+        <c:crossAx val="-1675549200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7302,7 +7335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132383472"/>
+        <c:axId val="-1675549200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7348,6 +7381,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7373,7 +7407,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7405,10 +7439,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132380320"/>
+        <c:crossAx val="-1675551776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7447,7 +7481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -7485,7 +7519,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7541,6 +7575,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7566,7 +7601,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8030,11 +8065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132437376"/>
-        <c:axId val="2132440528"/>
+        <c:axId val="-1675527120"/>
+        <c:axId val="-1675524128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132437376"/>
+        <c:axId val="-1675527120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8074,10 +8109,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132440528"/>
+        <c:crossAx val="-1675524128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8085,7 +8120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132440528"/>
+        <c:axId val="-1675524128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8131,6 +8166,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8156,7 +8192,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8188,10 +8224,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132437376"/>
+        <c:crossAx val="-1675527120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8230,7 +8266,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -8268,7 +8304,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8345,7 +8381,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8809,11 +8845,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113772960"/>
-        <c:axId val="2113776112"/>
+        <c:axId val="-1676265104"/>
+        <c:axId val="-1676262112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113772960"/>
+        <c:axId val="-1676265104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8853,10 +8889,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113776112"/>
+        <c:crossAx val="-1676262112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8864,7 +8900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113776112"/>
+        <c:axId val="-1676262112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8936,7 +8972,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8968,10 +9004,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113772960"/>
+        <c:crossAx val="-1676265104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9010,7 +9046,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -9048,7 +9084,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9295,11 +9331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131724480"/>
-        <c:axId val="2131730000"/>
+        <c:axId val="-1676500880"/>
+        <c:axId val="-1676497760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131724480"/>
+        <c:axId val="-1676500880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9312,7 +9348,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -9325,7 +9361,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t># Columns</a:t>
                 </a:r>
               </a:p>
@@ -9345,7 +9381,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -9357,7 +9393,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9383,7 +9419,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9395,10 +9431,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131730000"/>
+        <c:crossAx val="-1676497760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9406,7 +9442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131730000"/>
+        <c:axId val="-1676497760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9433,7 +9469,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -9446,7 +9482,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>MB/ms</a:t>
                 </a:r>
               </a:p>
@@ -9466,7 +9502,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -9478,7 +9514,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9498,7 +9534,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9510,10 +9546,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131724480"/>
+        <c:crossAx val="-1676500880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9541,7 +9577,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9553,7 +9589,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9576,9 +9612,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9660,7 +9696,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10124,11 +10160,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132496208"/>
-        <c:axId val="2132499360"/>
+        <c:axId val="-1676241920"/>
+        <c:axId val="-1676238928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132496208"/>
+        <c:axId val="-1676241920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10168,10 +10204,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132499360"/>
+        <c:crossAx val="-1676238928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10179,7 +10215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132499360"/>
+        <c:axId val="-1676238928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10251,7 +10287,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10283,10 +10319,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132496208"/>
+        <c:crossAx val="-1676241920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10325,7 +10361,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -10363,7 +10399,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10447,7 +10483,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10771,11 +10807,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132564432"/>
-        <c:axId val="2132570096"/>
+        <c:axId val="-1762734832"/>
+        <c:axId val="-1675481360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132564432"/>
+        <c:axId val="-1762734832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10833,7 +10869,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10871,10 +10907,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132570096"/>
+        <c:crossAx val="-1675481360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10882,7 +10918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132570096"/>
+        <c:axId val="-1675481360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10954,7 +10990,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10986,10 +11022,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132564432"/>
+        <c:crossAx val="-1762734832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11029,7 +11065,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11054,7 +11090,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11138,7 +11174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11326,11 +11362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106604560"/>
-        <c:axId val="2106653552"/>
+        <c:axId val="-1727080800"/>
+        <c:axId val="-1727077040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106604560"/>
+        <c:axId val="-1727080800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11388,7 +11424,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11426,10 +11462,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106653552"/>
+        <c:crossAx val="-1727077040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11437,7 +11473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106653552"/>
+        <c:axId val="-1727077040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11509,7 +11545,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11541,10 +11577,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2106604560"/>
+        <c:crossAx val="-1727080800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11584,7 +11620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11609,7 +11645,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11817,11 +11853,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2093243568"/>
-        <c:axId val="-2093230544"/>
+        <c:axId val="-1676211072"/>
+        <c:axId val="-1676207040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2093243568"/>
+        <c:axId val="-1676211072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11834,7 +11870,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -11847,7 +11883,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t># Threads</a:t>
                 </a:r>
               </a:p>
@@ -11867,7 +11903,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11879,10 +11915,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11904,7 +11941,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -11916,10 +11953,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093230544"/>
+        <c:crossAx val="-1676207040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11927,7 +11964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093230544"/>
+        <c:axId val="-1676207040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11954,7 +11991,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -11967,13 +12004,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>MB/ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00974025974025974"/>
+              <c:y val="0.354359651791877"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11987,7 +12031,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11999,7 +12043,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12018,7 +12062,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -12030,10 +12074,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093243568"/>
+        <c:crossAx val="-1676211072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12061,7 +12105,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -12073,7 +12117,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12096,9 +12140,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12149,7 +12193,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12175,7 +12218,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12391,11 +12434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113845552"/>
-        <c:axId val="2113851072"/>
+        <c:axId val="-1727040672"/>
+        <c:axId val="-1727036912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113845552"/>
+        <c:axId val="-1727040672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12427,7 +12470,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12453,7 +12495,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12491,10 +12533,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113851072"/>
+        <c:crossAx val="-1727036912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12502,7 +12544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113851072"/>
+        <c:axId val="-1727036912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12548,7 +12590,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12574,7 +12615,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12606,10 +12647,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113845552"/>
+        <c:crossAx val="-1727040672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12623,7 +12664,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12649,7 +12689,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12674,7 +12714,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12788,16 +12828,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="2132629600"/>
-        <c:axId val="2132632864"/>
+        <c:axId val="-1675452608"/>
+        <c:axId val="-1675449856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2132629600"/>
+        <c:axId val="-1675452608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12831,10 +12872,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132632864"/>
+        <c:crossAx val="-1675449856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12842,7 +12883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132632864"/>
+        <c:axId val="-1675449856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12913,7 +12954,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12944,10 +12985,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132629600"/>
+        <c:crossAx val="-1675452608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12980,7 +13021,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13056,7 +13097,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13308,11 +13349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131528144"/>
-        <c:axId val="2131578800"/>
+        <c:axId val="-1761634672"/>
+        <c:axId val="-1761632624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131528144"/>
+        <c:axId val="-1761634672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13352,10 +13393,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131578800"/>
+        <c:crossAx val="-1761632624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13363,7 +13404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131578800"/>
+        <c:axId val="-1761632624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13434,7 +13475,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13466,10 +13507,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131528144"/>
+        <c:crossAx val="-1761634672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13508,7 +13549,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -13546,7 +13587,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13622,7 +13663,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13864,11 +13905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130788400"/>
-        <c:axId val="2130785392"/>
+        <c:axId val="-1727339600"/>
+        <c:axId val="-1727337120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130788400"/>
+        <c:axId val="-1727339600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13908,10 +13949,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130785392"/>
+        <c:crossAx val="-1727337120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13919,7 +13960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130785392"/>
+        <c:axId val="-1727337120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13990,7 +14031,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14022,10 +14063,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130788400"/>
+        <c:crossAx val="-1727339600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14064,7 +14105,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -14102,7 +14143,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14178,7 +14219,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14936,11 +14977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131907936"/>
-        <c:axId val="2131911072"/>
+        <c:axId val="-1676439024"/>
+        <c:axId val="-1676436544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131907936"/>
+        <c:axId val="-1676439024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14980,10 +15021,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131911072"/>
+        <c:crossAx val="-1676436544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14991,7 +15032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131911072"/>
+        <c:axId val="-1676436544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15062,7 +15103,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -15094,10 +15135,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131907936"/>
+        <c:crossAx val="-1676439024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15136,7 +15177,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -15174,7 +15215,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15250,7 +15291,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16008,11 +16049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131957456"/>
-        <c:axId val="2131960672"/>
+        <c:axId val="-1727298880"/>
+        <c:axId val="-1727296400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131957456"/>
+        <c:axId val="-1727298880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16052,10 +16093,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131960672"/>
+        <c:crossAx val="-1727296400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16063,7 +16104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131960672"/>
+        <c:axId val="-1727296400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16134,7 +16175,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16166,10 +16207,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131957456"/>
+        <c:crossAx val="-1727298880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16208,7 +16249,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -16246,7 +16287,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16322,7 +16363,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16512,11 +16553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131997792"/>
-        <c:axId val="2132003328"/>
+        <c:axId val="-1676423664"/>
+        <c:axId val="-1676419904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131997792"/>
+        <c:axId val="-1676423664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16573,7 +16614,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16611,10 +16652,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132003328"/>
+        <c:crossAx val="-1676419904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16622,7 +16663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132003328"/>
+        <c:axId val="-1676419904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16693,7 +16734,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -16725,10 +16766,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131997792"/>
+        <c:crossAx val="-1676423664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16767,7 +16808,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16792,7 +16833,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16843,7 +16884,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16869,7 +16909,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -17492,11 +17532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132077744"/>
-        <c:axId val="2132080832"/>
+        <c:axId val="-1675610784"/>
+        <c:axId val="-1675608720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132077744"/>
+        <c:axId val="-1675610784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17536,10 +17576,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132080832"/>
+        <c:crossAx val="-1675608720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17547,7 +17587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132080832"/>
+        <c:axId val="-1675608720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17593,7 +17633,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17619,7 +17658,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -17651,10 +17690,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132077744"/>
+        <c:crossAx val="-1675610784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17693,7 +17732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -17731,7 +17770,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17782,7 +17821,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17808,7 +17846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -18431,11 +18469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132136832"/>
-        <c:axId val="2132139920"/>
+        <c:axId val="-1727270192"/>
+        <c:axId val="-1675593280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132136832"/>
+        <c:axId val="-1727270192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18475,10 +18513,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132139920"/>
+        <c:crossAx val="-1675593280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18486,7 +18524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132139920"/>
+        <c:axId val="-1675593280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18532,7 +18570,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18558,7 +18595,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -18590,10 +18627,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132136832"/>
+        <c:crossAx val="-1727270192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18632,7 +18669,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -18670,7 +18707,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -31735,7 +31772,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31771,7 +31808,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31849,7 +31886,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31885,7 +31922,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31928,7 +31965,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31966,7 +32003,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32004,7 +32041,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32047,7 +32084,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32085,7 +32122,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32123,7 +32160,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32166,7 +32203,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32202,7 +32239,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32240,7 +32277,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32278,7 +32315,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B75F091-D886-4962-BE44-55A728CC26BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B75F091-D886-4962-BE44-55A728CC26BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32301,13 +32338,13 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>788276</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>145977</xdr:rowOff>
+      <xdr:rowOff>145976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>709449</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>50509</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>172468</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32330,16 +32367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>768272</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>767840</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>107732</xdr:rowOff>
+      <xdr:colOff>830556</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>154769</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32383,7 +32420,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32421,7 +32458,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32464,7 +32501,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32502,7 +32539,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32540,7 +32577,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32578,7 +32615,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33346,7 +33383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
+    <sheetView topLeftCell="H37" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:H12"/>
     </sheetView>
   </sheetViews>
@@ -33628,45 +33665,45 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
-        <f>A4</f>
+        <f t="shared" ref="A15:B23" si="0">A4</f>
         <v>rows</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f>B4</f>
+        <f t="shared" si="0"/>
         <v>columns</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f t="shared" ref="C15:H15" si="0">C4</f>
+        <f t="shared" ref="C15:H15" si="1">C4</f>
         <v>col store (by field)</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>col store (inlined)</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>row store (by field)</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>row store (inlined)</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>row store (row insert)</v>
       </c>
       <c r="H15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>row store (inlined row insert)</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f>A5</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="B16">
-        <f>B5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C16" s="4">
@@ -33696,11 +33733,11 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="B17">
-        <f>B6</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C17" s="4">
@@ -33730,11 +33767,11 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="B18">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C18" s="4">
@@ -33764,11 +33801,11 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="B19">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C19" s="4">
@@ -33798,11 +33835,11 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="B20">
-        <f>B9</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C20" s="4">
@@ -33832,11 +33869,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="B21">
-        <f>B10</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C21" s="4">
@@ -33866,11 +33903,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="B22">
-        <f>B11</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C22" s="4">
@@ -33900,11 +33937,11 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
       <c r="B23">
-        <f>B12</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="C23" s="4">
@@ -33946,45 +33983,45 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
-        <f>A4</f>
+        <f t="shared" ref="A26:A34" si="2">A4</f>
         <v>rows</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" ref="B26:H26" si="1">B4</f>
+        <f t="shared" ref="B26:H26" si="3">B4</f>
         <v>columns</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>col store (by field)</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>col store (inlined)</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>row store (by field)</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>row store (inlined)</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>row store (row insert)</v>
       </c>
       <c r="H26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>row store (inlined row insert)</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>A5</f>
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="B27">
-        <f>B5</f>
+        <f t="shared" ref="B27:B34" si="4">B5</f>
         <v>1</v>
       </c>
       <c r="C27" s="2">
@@ -34014,11 +34051,11 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>A6</f>
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="B28">
-        <f>B6</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="C28" s="2">
@@ -34048,11 +34085,11 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>A7</f>
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="B29">
-        <f>B7</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C29" s="2">
@@ -34082,11 +34119,11 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>A8</f>
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="B30">
-        <f>B8</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C30" s="2">
@@ -34116,11 +34153,11 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>A9</f>
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="B31">
-        <f>B9</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C31" s="2">
@@ -34150,11 +34187,11 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>A10</f>
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="B32">
-        <f>B10</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C32" s="2">
@@ -34184,11 +34221,11 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>A11</f>
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="B33">
-        <f>B11</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="C33" s="2">
@@ -34218,11 +34255,11 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f>A12</f>
+        <f t="shared" si="2"/>
         <v>10000000</v>
       </c>
       <c r="B34">
-        <f>B12</f>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="C34" s="2">
@@ -36705,7 +36742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
+    <sheetView topLeftCell="AG18" zoomScale="81" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
       <selection activeCell="BB12" sqref="BB12"/>
     </sheetView>
   </sheetViews>
@@ -39792,7 +39829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C125" workbookViewId="0">
       <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
@@ -43103,7 +43140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
+    <sheetView topLeftCell="A104" zoomScale="99" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -45343,8 +45380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/results/vm-results.xlsx
+++ b/tests/results/vm-results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NUMBERS" sheetId="3" r:id="rId1"/>
@@ -445,7 +445,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1157,11 +1156,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1762776656"/>
-        <c:axId val="-1676525984"/>
+        <c:axId val="-1651018848"/>
+        <c:axId val="-1651017216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1762776656"/>
+        <c:axId val="-1651018848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1203,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676525984"/>
+        <c:crossAx val="-1651017216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1212,7 +1211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1676525984"/>
+        <c:axId val="-1651017216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,7 +1257,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1319,7 +1317,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1762776656"/>
+        <c:crossAx val="-1651018848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1421,62 +1419,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Update - Bandwidth</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1633,11 +1576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1676391216"/>
-        <c:axId val="-1676387456"/>
+        <c:axId val="-1536885888"/>
+        <c:axId val="-1536882768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1676391216"/>
+        <c:axId val="-1536885888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,7 +1593,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1663,12 +1606,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t># Updated Columns</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1682,7 +1626,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1720,7 +1664,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1735,7 +1679,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676387456"/>
+        <c:crossAx val="-1536882768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1743,7 +1687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1676387456"/>
+        <c:axId val="-1536882768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1714,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1783,12 +1727,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>MB/ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1802,7 +1747,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1834,7 +1779,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1849,7 +1794,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676391216"/>
+        <c:crossAx val="-1536885888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1863,6 +1808,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1876,7 +1822,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1911,7 +1857,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -1964,7 +1910,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3006,11 +2951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1727234640"/>
-        <c:axId val="-1727232160"/>
+        <c:axId val="-1651051392"/>
+        <c:axId val="-1651049344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1727234640"/>
+        <c:axId val="-1651051392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,7 +2998,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727232160"/>
+        <c:crossAx val="-1651049344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3061,7 +3006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1727232160"/>
+        <c:axId val="-1651049344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,7 +3052,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3168,7 +3112,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727234640"/>
+        <c:crossAx val="-1651051392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3301,7 +3245,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3671,11 +3614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1727193264"/>
-        <c:axId val="-1727190272"/>
+        <c:axId val="-1536959456"/>
+        <c:axId val="-1536220256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1727193264"/>
+        <c:axId val="-1536959456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3718,7 +3661,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727190272"/>
+        <c:crossAx val="-1536220256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3726,7 +3669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1727190272"/>
+        <c:axId val="-1536220256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,7 +3715,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3813,7 +3755,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727193264"/>
+        <c:crossAx val="-1536959456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3919,7 +3861,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4161,11 +4102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1676336384"/>
-        <c:axId val="-1676333904"/>
+        <c:axId val="-1537113952"/>
+        <c:axId val="-1537111904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1676336384"/>
+        <c:axId val="-1537113952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,7 +4149,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676333904"/>
+        <c:crossAx val="-1537111904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4216,7 +4157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1676333904"/>
+        <c:axId val="-1537111904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4237,7 +4178,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4298,7 +4238,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676336384"/>
+        <c:crossAx val="-1537113952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4426,7 +4366,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4710,11 +4649,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1727148816"/>
-        <c:axId val="-1727145056"/>
+        <c:axId val="-1676405760"/>
+        <c:axId val="-1676402640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1727148816"/>
+        <c:axId val="-1676405760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4746,7 +4685,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4813,7 +4751,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727145056"/>
+        <c:crossAx val="-1676402640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4821,7 +4759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1727145056"/>
+        <c:axId val="-1676402640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="150.0"/>
@@ -4868,7 +4806,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4929,7 +4866,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727148816"/>
+        <c:crossAx val="-1676405760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4943,7 +4880,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5570,11 +5506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1727126688"/>
-        <c:axId val="-1727122928"/>
+        <c:axId val="-1676471184"/>
+        <c:axId val="-1676468064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1727126688"/>
+        <c:axId val="-1676471184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5680,7 +5616,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727122928"/>
+        <c:crossAx val="-1676468064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5688,7 +5624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1727122928"/>
+        <c:axId val="-1676468064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5802,7 +5738,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727126688"/>
+        <c:crossAx val="-1676471184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6447,11 +6383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1675566016"/>
-        <c:axId val="-1675563536"/>
+        <c:axId val="-1676441632"/>
+        <c:axId val="-1676438512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1675566016"/>
+        <c:axId val="-1676441632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6483,7 +6419,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6550,7 +6485,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675563536"/>
+        <c:crossAx val="-1676438512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6558,7 +6493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1675563536"/>
+        <c:axId val="-1676438512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6604,7 +6539,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6665,7 +6599,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675566016"/>
+        <c:crossAx val="-1676441632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6790,7 +6724,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7280,11 +7213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1675551776"/>
-        <c:axId val="-1675549200"/>
+        <c:axId val="-1676571488"/>
+        <c:axId val="-1676569344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1675551776"/>
+        <c:axId val="-1676571488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7327,7 +7260,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675549200"/>
+        <c:crossAx val="-1676569344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7335,7 +7268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1675549200"/>
+        <c:axId val="-1676569344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7381,7 +7314,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7442,7 +7374,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675551776"/>
+        <c:crossAx val="-1676571488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7575,7 +7507,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8065,11 +7996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1675527120"/>
-        <c:axId val="-1675524128"/>
+        <c:axId val="-1536267520"/>
+        <c:axId val="-1536996304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1675527120"/>
+        <c:axId val="-1536267520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8112,7 +8043,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675524128"/>
+        <c:crossAx val="-1536996304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8120,7 +8051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1675524128"/>
+        <c:axId val="-1536996304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8166,7 +8097,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8227,7 +8157,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675527120"/>
+        <c:crossAx val="-1536267520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8355,7 +8285,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8845,11 +8774,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1676265104"/>
-        <c:axId val="-1676262112"/>
+        <c:axId val="-1537032304"/>
+        <c:axId val="-1537030160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1676265104"/>
+        <c:axId val="-1537032304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8892,7 +8821,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676262112"/>
+        <c:crossAx val="-1537030160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8900,7 +8829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1676262112"/>
+        <c:axId val="-1537030160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8946,7 +8875,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9007,7 +8935,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676265104"/>
+        <c:crossAx val="-1537032304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9331,11 +9259,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1676500880"/>
-        <c:axId val="-1676497760"/>
+        <c:axId val="-1674772288"/>
+        <c:axId val="-1674769584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1676500880"/>
+        <c:axId val="-1674772288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9367,7 +9295,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9434,7 +9361,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676497760"/>
+        <c:crossAx val="-1674769584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9442,7 +9369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1676497760"/>
+        <c:axId val="-1674769584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9488,7 +9415,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9549,7 +9475,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676500880"/>
+        <c:crossAx val="-1674772288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9563,7 +9489,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9670,7 +9595,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10160,11 +10084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1676241920"/>
-        <c:axId val="-1676238928"/>
+        <c:axId val="-1650814256"/>
+        <c:axId val="-1650812384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1676241920"/>
+        <c:axId val="-1650814256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10207,7 +10131,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676238928"/>
+        <c:crossAx val="-1650812384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10215,7 +10139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1676238928"/>
+        <c:axId val="-1650812384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10261,7 +10185,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10322,7 +10245,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676241920"/>
+        <c:crossAx val="-1650814256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10807,11 +10730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1762734832"/>
-        <c:axId val="-1675481360"/>
+        <c:axId val="-1651473616"/>
+        <c:axId val="-1651206288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1762734832"/>
+        <c:axId val="-1651473616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10843,7 +10766,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10910,7 +10832,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675481360"/>
+        <c:crossAx val="-1651206288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10918,7 +10840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1675481360"/>
+        <c:axId val="-1651206288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10964,7 +10886,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11025,7 +10946,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1762734832"/>
+        <c:crossAx val="-1651473616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11039,7 +10960,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11362,11 +11282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1727080800"/>
-        <c:axId val="-1727077040"/>
+        <c:axId val="-1651135504"/>
+        <c:axId val="-1651077248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1727080800"/>
+        <c:axId val="-1651135504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11398,7 +11318,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11465,7 +11384,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727077040"/>
+        <c:crossAx val="-1651077248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11473,7 +11392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1727077040"/>
+        <c:axId val="-1651077248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11519,7 +11438,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11580,7 +11498,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727080800"/>
+        <c:crossAx val="-1651135504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11594,7 +11512,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11853,11 +11770,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1676211072"/>
-        <c:axId val="-1676207040"/>
+        <c:axId val="-1650879920"/>
+        <c:axId val="-1650876528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1676211072"/>
+        <c:axId val="-1650879920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11956,7 +11873,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676207040"/>
+        <c:crossAx val="-1650876528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11964,7 +11881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1676207040"/>
+        <c:axId val="-1650876528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12077,7 +11994,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676211072"/>
+        <c:crossAx val="-1650879920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12434,11 +12351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1727040672"/>
-        <c:axId val="-1727036912"/>
+        <c:axId val="-1650925520"/>
+        <c:axId val="-1650927856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1727040672"/>
+        <c:axId val="-1650925520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12536,7 +12453,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727036912"/>
+        <c:crossAx val="-1650927856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12544,7 +12461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1727036912"/>
+        <c:axId val="-1650927856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12650,7 +12567,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727040672"/>
+        <c:crossAx val="-1650925520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12828,11 +12745,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-1675452608"/>
-        <c:axId val="-1675449856"/>
+        <c:axId val="-1537207520"/>
+        <c:axId val="-1537205744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1675452608"/>
+        <c:axId val="-1537207520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12875,7 +12792,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675449856"/>
+        <c:crossAx val="-1537205744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12883,7 +12800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1675449856"/>
+        <c:axId val="-1537205744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12988,7 +12905,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675452608"/>
+        <c:crossAx val="-1537207520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13349,11 +13266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1761634672"/>
-        <c:axId val="-1761632624"/>
+        <c:axId val="-1579435968"/>
+        <c:axId val="-1579434608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1761634672"/>
+        <c:axId val="-1579435968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13396,7 +13313,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1761632624"/>
+        <c:crossAx val="-1579434608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13404,7 +13321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1761632624"/>
+        <c:axId val="-1579434608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13510,7 +13427,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1761634672"/>
+        <c:crossAx val="-1579435968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13905,11 +13822,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1727339600"/>
-        <c:axId val="-1727337120"/>
+        <c:axId val="-1542354112"/>
+        <c:axId val="-1542352752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1727339600"/>
+        <c:axId val="-1542354112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13952,7 +13869,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727337120"/>
+        <c:crossAx val="-1542352752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13960,7 +13877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1727337120"/>
+        <c:axId val="-1542352752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14066,7 +13983,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727339600"/>
+        <c:crossAx val="-1542354112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14194,6 +14111,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14977,11 +14895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1676439024"/>
-        <c:axId val="-1676436544"/>
+        <c:axId val="-1651101456"/>
+        <c:axId val="-1650979664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1676439024"/>
+        <c:axId val="-1651101456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15024,7 +14942,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676436544"/>
+        <c:crossAx val="-1650979664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15032,7 +14950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1676436544"/>
+        <c:axId val="-1650979664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15078,6 +14996,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15138,7 +15057,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676439024"/>
+        <c:crossAx val="-1651101456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15266,6 +15185,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16049,11 +15969,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1727298880"/>
-        <c:axId val="-1727296400"/>
+        <c:axId val="-1650852896"/>
+        <c:axId val="-1650851536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1727298880"/>
+        <c:axId val="-1650852896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16096,7 +16016,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727296400"/>
+        <c:crossAx val="-1650851536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16104,7 +16024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1727296400"/>
+        <c:axId val="-1650851536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16150,6 +16070,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16210,7 +16131,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727298880"/>
+        <c:crossAx val="-1650852896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16338,6 +16259,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16553,11 +16475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1676423664"/>
-        <c:axId val="-1676419904"/>
+        <c:axId val="-1536688928"/>
+        <c:axId val="-1536686800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1676423664"/>
+        <c:axId val="-1536688928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16589,6 +16511,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16655,7 +16578,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676419904"/>
+        <c:crossAx val="-1536686800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16663,7 +16586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1676419904"/>
+        <c:axId val="-1536686800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16709,6 +16632,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16769,7 +16693,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676423664"/>
+        <c:crossAx val="-1536688928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16783,6 +16707,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16884,6 +16809,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17532,11 +17458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1675610784"/>
-        <c:axId val="-1675608720"/>
+        <c:axId val="-1536604480"/>
+        <c:axId val="-1536602848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1675610784"/>
+        <c:axId val="-1536604480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17579,7 +17505,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675608720"/>
+        <c:crossAx val="-1536602848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17587,7 +17513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1675608720"/>
+        <c:axId val="-1536602848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17633,6 +17559,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17693,7 +17620,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675610784"/>
+        <c:crossAx val="-1536604480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17821,6 +17748,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18469,11 +18397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1727270192"/>
-        <c:axId val="-1675593280"/>
+        <c:axId val="-1542311008"/>
+        <c:axId val="-1542153728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1727270192"/>
+        <c:axId val="-1542311008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18516,7 +18444,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1675593280"/>
+        <c:crossAx val="-1542153728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18524,7 +18452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1675593280"/>
+        <c:axId val="-1542153728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18570,6 +18498,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18630,7 +18559,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1727270192"/>
+        <c:crossAx val="-1542311008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31772,7 +31701,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31808,7 +31737,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31886,7 +31815,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31922,7 +31851,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31965,7 +31894,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32003,7 +31932,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32041,7 +31970,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32084,7 +32013,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32122,7 +32051,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32144,23 +32073,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32203,7 +32132,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32239,7 +32168,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32277,7 +32206,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32315,7 +32244,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B75F091-D886-4962-BE44-55A728CC26BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B75F091-D886-4962-BE44-55A728CC26BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32420,7 +32349,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32458,7 +32387,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32501,7 +32430,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32539,7 +32468,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32577,7 +32506,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32615,7 +32544,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35846,8 +35775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="109" workbookViewId="0">
-      <selection activeCell="W77" sqref="W77"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="50" workbookViewId="0">
+      <selection activeCell="AA81" sqref="AA81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45380,7 +45309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
